--- a/inst/extdata/CopyOfData/howard46.xlsx
+++ b/inst/extdata/CopyOfData/howard46.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjones/Desktop/woodcarb/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24816"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="26280" windowHeight="12720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,15 +21,883 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+  <si>
+    <r>
+      <t xml:space="preserve">Table 46—Paper and board production and fibrous materials consumed in the manufacture of paper and board, 1965–1999 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Paper and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5.7"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Consumption of fibrous materials </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Rags and Other</t>
+  </si>
+  <si>
+    <r>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">per ton of paper and board produced </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovered </t>
+  </si>
+  <si>
+    <t>Estimated</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.6"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.6"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>production</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">b,e </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.6"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Total </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Wood pulp</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Recovered Paper</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Other</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">e,f </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Wood pulp</t>
+  </si>
+  <si>
+    <r>
+      <t>Recovered paper</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>g</t>
+    </r>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Imports</t>
+  </si>
+  <si>
+    <t>Exports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilization </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thousand </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tons </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.6"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Percent</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>h</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.6"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.6"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.6"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.6"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.6"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.6"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.6"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.6"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.6"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.6"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.6"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.6"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.6"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.6"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Excludes paper, paperboard, wet machine board and construction grades.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5.7"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Production numbers = totals in Table 42. Source: see e) below.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wood pulp consumption numbers from Table 48 (some numbers revised).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wastepaper consumption numbers from Table 46 (some numbers revised).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>American Paper Institute; American Forest &amp; Paper Association: Statistics of Paper, Paperb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>oard &amp; Wood Pulp;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  1977, 1982, 1990, 1995, 1999 annual Statistics reports (4).</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1981-1987 &amp; 1996-1997 numbers revised. 1999 number is preliminary.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">When given as percentage, referred to as "Recovered Paper Utilization Rate".  </t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8.6"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8.6"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="5.7"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8.6"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,7 +908,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,15 +916,208 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -68,6 +1127,653 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Instructions_original"/>
+      <sheetName val="Parameters&amp;Results"/>
+      <sheetName val="Table 4.G s1"/>
+      <sheetName val="Table 4.G s2"/>
+      <sheetName val="06 IPCC Tables"/>
+      <sheetName val="IPCC Tables"/>
+      <sheetName val="Flowchart"/>
+      <sheetName val="Cons&amp;Trade"/>
+      <sheetName val="Dumps"/>
+      <sheetName val="Calculation"/>
+      <sheetName val="SW Calc"/>
+      <sheetName val="USA"/>
+      <sheetName val="SW Calc P"/>
+      <sheetName val="Control"/>
+      <sheetName val="Ince_Table 3"/>
+      <sheetName val="Ince_Table 4"/>
+      <sheetName val="Heath "/>
+      <sheetName val="MSW C&amp;D"/>
+      <sheetName val="Birdsey_92"/>
+      <sheetName val="Hair_1963_Table 2_adj"/>
+      <sheetName val="Hair_1963_Table 20"/>
+      <sheetName val="Hair_1963_Table 21"/>
+      <sheetName val="Hair_1958_Table 14_adj"/>
+      <sheetName val="Hair_1958_Table 18"/>
+      <sheetName val="Commerce_Series L 56-71"/>
+      <sheetName val="API_1973_Total Wood Pulp"/>
+      <sheetName val="API_1975_PulpwoodC&amp;I"/>
+      <sheetName val="API_1975_Pulpwood_SWHW"/>
+      <sheetName val="API_1975_Consumption_Fiberpulp"/>
+      <sheetName val="Ulrich_Table 4_adj"/>
+      <sheetName val="Ulrich_Table 5_adj"/>
+      <sheetName val="Ulrich_Table 6_adj"/>
+      <sheetName val="Ulrich_Table 29_adj"/>
+      <sheetName val="Ulrich_Table 36_adj"/>
+      <sheetName val="Ulrich_Table 43_adj"/>
+      <sheetName val="Ulrich_Table 48"/>
+      <sheetName val="Ulrich_Table 49"/>
+      <sheetName val="Ulrich_Table 52_adj"/>
+      <sheetName val="Ulrich_Table 53_adj"/>
+      <sheetName val="Ulrich_Table 54_adj"/>
+      <sheetName val="Howard_Table 5a"/>
+      <sheetName val="Howard_Table 6a"/>
+      <sheetName val="Howard_Table 7a"/>
+      <sheetName val="Howard_Table 28"/>
+      <sheetName val="Howard_Table 37"/>
+      <sheetName val="Howard_Table 38"/>
+      <sheetName val="Howard_Table 46"/>
+      <sheetName val="Howard_Table 47"/>
+      <sheetName val="Howard_Table 49"/>
+      <sheetName val="Howard_Table 53"/>
+      <sheetName val="Howard_Table 55"/>
+      <sheetName val="Howard_Table 56"/>
+      <sheetName val="Ince_Table 1"/>
+      <sheetName val="Ince_Table 2"/>
+      <sheetName val="Ince_Sources"/>
+      <sheetName val="Ince_Pulp,P&amp;BD"/>
+      <sheetName val="Ince_Paper&amp;Paperboard"/>
+      <sheetName val="Haynes_Table 12"/>
+      <sheetName val="Imports_Table 1"/>
+      <sheetName val="Imports_Table 2"/>
+      <sheetName val="Imports_Table 3"/>
+      <sheetName val="Exports_Table 1"/>
+      <sheetName val="Exports_Table 2"/>
+      <sheetName val="Exports_Table 3"/>
+      <sheetName val="Howard_Conv_SU2shtons_corrected"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48">
+        <row r="8">
+          <cell r="D8">
+            <v>8.7802283922973583</v>
+          </cell>
+          <cell r="F8">
+            <v>4.1243785485246969</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>8.7416046233144176</v>
+          </cell>
+          <cell r="F9">
+            <v>4.2264295276343473</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>8.3049157966528515</v>
+          </cell>
+          <cell r="F10">
+            <v>4.6923139842408048</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>8.3090241836830714</v>
+          </cell>
+          <cell r="F11">
+            <v>4.685513058789005</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>9.027932960893855</v>
+          </cell>
+          <cell r="F12">
+            <v>4.91205942120384</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>7.9906286962059871</v>
+          </cell>
+          <cell r="F13">
+            <v>7.107426629311532</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>7.7691576597484699</v>
+          </cell>
+          <cell r="F14">
+            <v>4.9541033642347898</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>7.7277061481696441</v>
+          </cell>
+          <cell r="F15">
+            <v>4.8174995188915259</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>7.9898351208580118</v>
+          </cell>
+          <cell r="F16">
+            <v>4.8502907277505329</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>8.3007851822025369</v>
+          </cell>
+          <cell r="F17">
+            <v>5.7953628823760575</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18">
+            <v>7.0600436759349128</v>
+          </cell>
+          <cell r="F18">
+            <v>5.9524092470522696</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>7.6170038830983042</v>
+          </cell>
+          <cell r="F19">
+            <v>5.2765030070618808</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>7.6733656366669321</v>
+          </cell>
+          <cell r="F20">
+            <v>5.3732801432874702</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21">
+            <v>7.8219457673243271</v>
+          </cell>
+          <cell r="F21">
+            <v>5.1959216313474608</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>8.2153729071537285</v>
+          </cell>
+          <cell r="F22">
+            <v>5.7349981436973643</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="D23">
+            <v>7.614232280134579</v>
+          </cell>
+          <cell r="F23">
+            <v>7.1868272971033651</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>7.6824752344968896</v>
+          </cell>
+          <cell r="F24">
+            <v>6.9672286417882177</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25">
+            <v>7.0676023120493339</v>
+          </cell>
+          <cell r="F25">
+            <v>6.5963317012512626</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26">
+            <v>7.5095405841773086</v>
+          </cell>
+          <cell r="F26">
+            <v>6.7412820275645169</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27">
+            <v>7.6564977917227965</v>
+          </cell>
+          <cell r="F27">
+            <v>6.2236999324640241</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28">
+            <v>8.1472562755399878</v>
+          </cell>
+          <cell r="F28">
+            <v>7.0089574291254966</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29">
+            <v>8.0215682498555694</v>
+          </cell>
+          <cell r="F29">
+            <v>7.8214642875940834</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30">
+            <v>8.1501646837399999</v>
+          </cell>
+          <cell r="F30">
+            <v>8.2103212588375563</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31">
+            <v>8.3042130942177099</v>
+          </cell>
+          <cell r="F31">
+            <v>9.0388828934889958</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32">
+            <v>8.171930626775973</v>
+          </cell>
+          <cell r="F32">
+            <v>9.3006000387121759</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="D33">
+            <v>7.8873557289315883</v>
+          </cell>
+          <cell r="F33">
+            <v>9.3658799644715138</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="D34">
+            <v>8.021639323209298</v>
+          </cell>
+          <cell r="F34">
+            <v>9.9599277127367021</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="D35">
+            <v>7.9646819477284403</v>
+          </cell>
+          <cell r="F35">
+            <v>11.053685451039211</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="D36">
+            <v>8.5609297118334347</v>
+          </cell>
+          <cell r="F36">
+            <v>10.105367499572402</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="D37">
+            <v>8.7134519843152685</v>
+          </cell>
+          <cell r="F37">
+            <v>10.20604520631068</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="D38">
+            <v>9.2100083904354015</v>
+          </cell>
+          <cell r="F38">
+            <v>12.311476387046779</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="D39">
+            <v>8.8900373288454215</v>
+          </cell>
+          <cell r="F39">
+            <v>10.945804008976689</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="D40">
+            <v>9.6848079567547458</v>
+          </cell>
+          <cell r="F40">
+            <v>10.487978994748689</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="D41">
+            <v>9.1889069746015171</v>
+          </cell>
+          <cell r="F41">
+            <v>9.2460445344750859</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="D42">
+            <v>10.464811520862279</v>
+          </cell>
+          <cell r="F42">
+            <v>9.4345392122580023</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="D43">
+            <v>11.367139709807585</v>
+          </cell>
+          <cell r="F43">
+            <v>10.211555498900539</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="D44">
+            <v>12.375177804980506</v>
+          </cell>
+          <cell r="F44">
+            <v>10.596025636619816</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="D45">
+            <v>12.270636629310786</v>
+          </cell>
+          <cell r="F45">
+            <v>10.769343367373295</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="D46">
+            <v>11.436801530679142</v>
+          </cell>
+          <cell r="F46">
+            <v>10.140956312110859</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="D47">
+            <v>11.286233599805827</v>
+          </cell>
+          <cell r="F47">
+            <v>10.534253367630136</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="D48">
+            <v>11.370484948868295</v>
+          </cell>
+          <cell r="F48">
+            <v>10.847072952081325</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="D49">
+            <v>11.655284157491899</v>
+          </cell>
+          <cell r="F49">
+            <v>11.158219039254105</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="D50">
+            <v>11.599260657930984</v>
+          </cell>
+          <cell r="F50">
+            <v>11.656268236498592</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="D51">
+            <v>11.394586886176555</v>
+          </cell>
+          <cell r="F51">
+            <v>13.772631485901174</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="D52">
+            <v>10.481474554786692</v>
+          </cell>
+          <cell r="F52">
+            <v>14.860271156962726</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="D53">
+            <v>12.14863000197122</v>
+          </cell>
+          <cell r="F53">
+            <v>15.64392792247123</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="D54">
+            <v>12.179436126154826</v>
+          </cell>
+          <cell r="F54">
+            <v>17.053126469205456</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="D55">
+            <v>11.092845372293345</v>
+          </cell>
+          <cell r="F55">
+            <v>15.331833361634686</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="D56">
+            <v>11.969255463352166</v>
+          </cell>
+          <cell r="F56">
+            <v>15.342733384809506</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="D57">
+            <v>11.104133099076504</v>
+          </cell>
+          <cell r="F57">
+            <v>10.059329628868362</v>
+          </cell>
+          <cell r="G57">
+            <v>66542.790275222113</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="D58">
+            <v>10.851192061379118</v>
+          </cell>
+          <cell r="F58">
+            <v>9.8559955852830861</v>
+          </cell>
+          <cell r="G58">
+            <v>68296.643890183885</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="D59">
+            <v>10.817045194829692</v>
+          </cell>
+          <cell r="F59">
+            <v>9.8504182985616158</v>
+          </cell>
+          <cell r="G59">
+            <v>68734.112376213103</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="D60">
+            <v>10.673574559276076</v>
+          </cell>
+          <cell r="F60">
+            <v>9.7413102230221469</v>
+          </cell>
+          <cell r="G60">
+            <v>69901.605676383959</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="D61">
+            <v>10.558174306434619</v>
+          </cell>
+          <cell r="F61">
+            <v>9.6551180896759767</v>
+          </cell>
+          <cell r="G61">
+            <v>70930.823669352292</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="D62">
+            <v>10.468345416390195</v>
+          </cell>
+          <cell r="F62">
+            <v>9.5921701137156461</v>
+          </cell>
+          <cell r="G62">
+            <v>71816.506820926399</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="D63">
+            <v>10.351140313305459</v>
+          </cell>
+          <cell r="F63">
+            <v>9.5012272483652342</v>
+          </cell>
+          <cell r="G63">
+            <v>72938.823853978247</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56">
+        <row r="125">
+          <cell r="B125">
+            <v>96839</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>98498</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>98879</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>100299</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>101477</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>102765</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>104142</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -113,7 +1819,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,7 +1854,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,7 +2031,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -333,2689 +2039,4991 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:AC88"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:T56"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:29" ht="16" thickBot="1">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" ht="16" thickBot="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="14"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+    </row>
+    <row r="7" spans="1:29" ht="16" thickBot="1">
+      <c r="A7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="7">
+        <v>1965</v>
+      </c>
+      <c r="B8" s="7">
         <v>40489</v>
       </c>
-      <c r="B1">
+      <c r="C8" s="7">
         <v>46838</v>
       </c>
-      <c r="C1">
+      <c r="D8" s="7">
         <v>35728</v>
       </c>
-      <c r="D1">
+      <c r="E8" s="7">
         <v>10231</v>
       </c>
-      <c r="E1">
+      <c r="F8" s="7">
         <v>879</v>
       </c>
-      <c r="F1">
+      <c r="G8" s="7">
         <v>1.1568080219318828</v>
       </c>
-      <c r="G1">
+      <c r="H8" s="7">
         <v>0.88241250710069397</v>
       </c>
-      <c r="H1">
+      <c r="I8" s="7">
         <v>0.25268591469287954</v>
       </c>
-      <c r="I1">
+      <c r="J8" s="7">
         <v>2.1709600138309169E-2</v>
       </c>
-      <c r="J1">
+      <c r="K8" s="2">
         <v>25.268591469287955</v>
       </c>
-      <c r="K1">
+      <c r="L8" s="20">
+        <f>F8*(B8/C8)</f>
         <v>759.84950254067212</v>
       </c>
-      <c r="L1">
+      <c r="M8" s="20">
+        <f>F8*('[1]Howard_Table 49'!D8/100)</f>
         <v>77.178207568293772</v>
       </c>
-      <c r="M1">
+      <c r="N8" s="20">
+        <f>L8*('[1]Howard_Table 49'!F8/100)</f>
         <v>31.3390698838591</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="7">
+        <v>1966</v>
+      </c>
+      <c r="B9" s="7">
         <v>43903.5</v>
       </c>
-      <c r="B2">
+      <c r="C9" s="7">
         <v>49958</v>
       </c>
-      <c r="C2">
+      <c r="D9" s="7">
         <v>38414</v>
       </c>
-      <c r="D2">
+      <c r="E9" s="7">
         <v>10564</v>
       </c>
-      <c r="E2">
+      <c r="F9" s="7">
         <v>980</v>
       </c>
-      <c r="F2">
+      <c r="G9" s="7">
         <v>1.1379047228580865</v>
       </c>
-      <c r="G2">
+      <c r="H9" s="7">
         <v>0.87496441058229979</v>
       </c>
-      <c r="H2">
+      <c r="I9" s="7">
         <v>0.24061862949423166</v>
       </c>
-      <c r="I2">
+      <c r="J9" s="7">
         <v>2.2321682781555E-2</v>
       </c>
-      <c r="J2">
+      <c r="K9" s="2">
         <v>24.061862949423166</v>
       </c>
-      <c r="K2">
+      <c r="L9" s="20">
+        <f t="shared" ref="L9:L48" si="0">F9*(B9/C9)</f>
         <v>861.23203490932383</v>
       </c>
-      <c r="L2">
+      <c r="M9" s="20">
+        <f>F9*('[1]Howard_Table 49'!D9/100)</f>
         <v>85.667725308481295</v>
       </c>
-      <c r="M2">
+      <c r="N9" s="20">
+        <f>L9*('[1]Howard_Table 49'!F9/100)</f>
         <v>36.399365024853815</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="7">
+        <v>1967</v>
+      </c>
+      <c r="B10" s="7">
         <v>43744.9</v>
       </c>
-      <c r="B3">
+      <c r="C10" s="7">
         <v>48846</v>
       </c>
-      <c r="C3">
+      <c r="D10" s="7">
         <v>38122</v>
       </c>
-      <c r="D3">
+      <c r="E10" s="7">
         <v>9888</v>
       </c>
-      <c r="E3">
+      <c r="F10" s="7">
         <v>836</v>
       </c>
-      <c r="F3">
+      <c r="G10" s="7">
         <v>1.1166101648420732</v>
       </c>
-      <c r="G3">
+      <c r="H10" s="7">
         <v>0.87146158752220271</v>
       </c>
-      <c r="H3">
+      <c r="I10" s="7">
         <v>0.22603777811813494</v>
       </c>
-      <c r="I3">
+      <c r="J10" s="7">
         <v>1.9110799201735518E-2</v>
       </c>
-      <c r="J3">
+      <c r="K10" s="2">
         <v>22.603777811813494</v>
       </c>
-      <c r="K3">
+      <c r="L10" s="20">
+        <f t="shared" si="0"/>
         <v>748.69459935306884</v>
       </c>
-      <c r="L3">
+      <c r="M10" s="20">
+        <f>F10*('[1]Howard_Table 49'!D10/100)</f>
         <v>69.429096060017827</v>
       </c>
-      <c r="M3">
+      <c r="N10" s="20">
+        <f>L10*('[1]Howard_Table 49'!F10/100)</f>
         <v>35.131101384699718</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="7">
+        <v>1968</v>
+      </c>
+      <c r="B11" s="7">
         <v>47084.7</v>
       </c>
-      <c r="B4">
+      <c r="C11" s="7">
         <v>53635</v>
       </c>
-      <c r="C4">
+      <c r="D11" s="7">
         <v>42508</v>
       </c>
-      <c r="D4">
+      <c r="E11" s="7">
         <v>10222</v>
       </c>
-      <c r="E4">
+      <c r="F11" s="7">
         <v>905</v>
       </c>
-      <c r="F4">
+      <c r="G11" s="7">
         <v>1.1391173778318648</v>
       </c>
-      <c r="G4">
+      <c r="H11" s="7">
         <v>0.90279857363432292</v>
       </c>
-      <c r="H4">
+      <c r="I11" s="7">
         <v>0.21709812316952218</v>
       </c>
-      <c r="I4">
+      <c r="J11" s="7">
         <v>1.9220681028019718E-2</v>
       </c>
-      <c r="J4">
+      <c r="K11" s="2">
         <v>21.709812316952217</v>
       </c>
-      <c r="K4">
+      <c r="L11" s="20">
+        <f t="shared" si="0"/>
         <v>794.47475529038866</v>
       </c>
-      <c r="L4">
+      <c r="M11" s="20">
+        <f>F11*('[1]Howard_Table 49'!D11/100)</f>
         <v>75.196668862331791</v>
       </c>
-      <c r="M4">
+      <c r="N11" s="20">
+        <f>L11*('[1]Howard_Table 49'!F11/100)</f>
         <v>37.225218407913154</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="7">
+        <v>1969</v>
+      </c>
+      <c r="B12" s="7">
         <v>49824.4</v>
       </c>
-      <c r="B5">
+      <c r="C12" s="7">
         <v>57597</v>
       </c>
-      <c r="C5">
+      <c r="D12" s="7">
         <v>44750</v>
       </c>
-      <c r="D5">
+      <c r="E12" s="7">
         <v>11969</v>
       </c>
-      <c r="E5">
+      <c r="F12" s="7">
         <v>878</v>
       </c>
-      <c r="F5">
+      <c r="G12" s="7">
         <v>1.1559998715488797</v>
       </c>
-      <c r="G5">
+      <c r="H12" s="7">
         <v>0.89815431796469192</v>
       </c>
-      <c r="H5">
+      <c r="I12" s="7">
         <v>0.24022366551328264</v>
       </c>
-      <c r="I5">
+      <c r="J12" s="7">
         <v>1.7621888070905017E-2</v>
       </c>
-      <c r="J5">
+      <c r="K12" s="2">
         <v>24.022366551328265</v>
       </c>
-      <c r="K5">
+      <c r="L12" s="20">
+        <f t="shared" si="0"/>
         <v>759.51565532927066</v>
       </c>
-      <c r="L5">
+      <c r="M12" s="20">
+        <f>F12*('[1]Howard_Table 49'!D12/100)</f>
         <v>79.26525139664804</v>
       </c>
-      <c r="M5">
+      <c r="N12" s="20">
+        <f>L12*('[1]Howard_Table 49'!F12/100)</f>
         <v>37.307860303119526</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="7">
+        <v>1970</v>
+      </c>
+      <c r="B13" s="7">
         <v>48718.7</v>
       </c>
-      <c r="B6">
+      <c r="C13" s="7">
         <v>56595</v>
       </c>
-      <c r="C6">
+      <c r="D13" s="7">
         <v>43964</v>
       </c>
-      <c r="D6">
+      <c r="E13" s="7">
         <v>11803</v>
       </c>
-      <c r="E6">
+      <c r="F13" s="7">
         <v>828</v>
       </c>
-      <c r="F6">
+      <c r="G13" s="7">
         <v>1.1616689279475849</v>
       </c>
-      <c r="G6">
+      <c r="H13" s="7">
         <v>0.90240503133293792</v>
       </c>
-      <c r="H6">
+      <c r="I13" s="7">
         <v>0.24226836922988504</v>
       </c>
-      <c r="I6">
+      <c r="J13" s="7">
         <v>1.699552738476191E-2</v>
       </c>
-      <c r="J6">
+      <c r="K13" s="2">
         <v>24.226836922988504</v>
       </c>
-      <c r="K6">
+      <c r="L13" s="20">
+        <f t="shared" si="0"/>
         <v>712.76762258150018</v>
       </c>
-      <c r="L6">
+      <c r="M13" s="20">
+        <f>F13*('[1]Howard_Table 49'!D13/100)</f>
         <v>66.162405604585572</v>
       </c>
-      <c r="M6">
+      <c r="N13" s="20">
+        <f>L13*('[1]Howard_Table 49'!F13/100)</f>
         <v>50.65943581246826</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="7">
+        <v>1971</v>
+      </c>
+      <c r="B14" s="7">
         <v>49741.3</v>
       </c>
-      <c r="B7">
+      <c r="C14" s="7">
         <v>58224</v>
       </c>
-      <c r="C7">
+      <c r="D14" s="7">
         <v>45243</v>
       </c>
-      <c r="D7">
+      <c r="E14" s="7">
         <v>12106</v>
       </c>
-      <c r="E7">
+      <c r="F14" s="7">
         <v>875</v>
       </c>
-      <c r="F7">
+      <c r="G14" s="7">
         <v>1.1705363551012939</v>
       </c>
-      <c r="G7">
+      <c r="H14" s="7">
         <v>0.90956609497540264</v>
       </c>
-      <c r="H7">
+      <c r="I14" s="7">
         <v>0.24337924420954016</v>
       </c>
-      <c r="I7">
+      <c r="J14" s="7">
         <v>1.7591015916351201E-2</v>
       </c>
-      <c r="J7">
+      <c r="K14" s="2">
         <v>24.337924420954018</v>
       </c>
-      <c r="K7">
+      <c r="L14" s="20">
+        <f t="shared" si="0"/>
         <v>747.520567120088</v>
       </c>
-      <c r="L7">
+      <c r="M14" s="20">
+        <f>F14*('[1]Howard_Table 49'!D14/100)</f>
         <v>67.980129522799118</v>
       </c>
-      <c r="M7">
+      <c r="N14" s="20">
+        <f>L14*('[1]Howard_Table 49'!F14/100)</f>
         <v>37.032941564043256</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="7">
+        <v>1972</v>
+      </c>
+      <c r="B15" s="7">
         <v>53841.8</v>
       </c>
-      <c r="B8">
+      <c r="C15" s="7">
         <v>62059</v>
       </c>
-      <c r="C8">
+      <c r="D15" s="7">
         <v>48242</v>
       </c>
-      <c r="D8">
+      <c r="E15" s="7">
         <v>12925</v>
       </c>
-      <c r="E8">
+      <c r="F15" s="7">
         <v>892</v>
       </c>
-      <c r="F8">
+      <c r="G15" s="7">
         <v>1.1526174830707741</v>
       </c>
-      <c r="G8">
+      <c r="H15" s="7">
         <v>0.89599530476321365</v>
       </c>
-      <c r="H8">
+      <c r="I15" s="7">
         <v>0.24005512445720609</v>
       </c>
-      <c r="I8">
+      <c r="J15" s="7">
         <v>1.6567053850354185E-2</v>
       </c>
-      <c r="J8">
+      <c r="K15" s="2">
         <v>24.005512445720608</v>
       </c>
-      <c r="K8">
+      <c r="L15" s="20">
+        <f t="shared" si="0"/>
         <v>773.89074268035256</v>
       </c>
-      <c r="L8">
+      <c r="M15" s="20">
+        <f>F15*('[1]Howard_Table 49'!D15/100)</f>
         <v>68.931138841673231</v>
       </c>
-      <c r="M8">
+      <c r="N15" s="20">
+        <f>L15*('[1]Howard_Table 49'!F15/100)</f>
         <v>37.282182805372038</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="7">
+        <v>1973</v>
+      </c>
+      <c r="B16" s="7">
         <v>56346.2</v>
       </c>
-      <c r="B9">
+      <c r="C16" s="7">
         <v>64953</v>
       </c>
-      <c r="C9">
+      <c r="D16" s="7">
         <v>49976</v>
       </c>
-      <c r="D9">
+      <c r="E16" s="7">
         <v>14094</v>
       </c>
-      <c r="E9">
+      <c r="F16" s="7">
         <v>883</v>
       </c>
-      <c r="F9">
+      <c r="G16" s="7">
         <v>1.1527485438237184</v>
       </c>
-      <c r="G9">
+      <c r="H16" s="7">
         <v>0.88694534857718887</v>
       </c>
-      <c r="H9">
+      <c r="I16" s="7">
         <v>0.25013221832173244</v>
       </c>
-      <c r="I9">
+      <c r="J16" s="7">
         <v>1.5670976924797058E-2</v>
       </c>
-      <c r="J9">
+      <c r="K16" s="2">
         <v>25.013221832173244</v>
       </c>
-      <c r="K9">
+      <c r="L16" s="20">
+        <f t="shared" si="0"/>
         <v>765.99532893014941</v>
       </c>
-      <c r="L9">
+      <c r="M16" s="20">
+        <f>F16*('[1]Howard_Table 49'!D16/100)</f>
         <v>70.550244117176248</v>
       </c>
-      <c r="M9">
+      <c r="N16" s="20">
+        <f>L16*('[1]Howard_Table 49'!F16/100)</f>
         <v>37.153000414101236</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="7">
+        <v>1974</v>
+      </c>
+      <c r="B17" s="7">
         <v>55756.3</v>
       </c>
-      <c r="B10">
+      <c r="C17" s="7">
         <v>64490</v>
       </c>
-      <c r="C10">
+      <c r="D17" s="7">
         <v>49670</v>
       </c>
-      <c r="D10">
+      <c r="E17" s="7">
         <v>13982</v>
       </c>
-      <c r="E10">
+      <c r="F17" s="7">
         <v>838</v>
       </c>
-      <c r="F10">
+      <c r="G17" s="7">
         <v>1.1566405948744805</v>
       </c>
-      <c r="G10">
+      <c r="H17" s="7">
         <v>0.89084103500411604</v>
       </c>
-      <c r="H10">
+      <c r="I17" s="7">
         <v>0.25076986815839641</v>
       </c>
-      <c r="I10">
+      <c r="J17" s="7">
         <v>1.5029691711967974E-2</v>
       </c>
-      <c r="J10">
+      <c r="K17" s="2">
         <v>25.076986815839643</v>
       </c>
-      <c r="K10">
+      <c r="L17" s="20">
+        <f t="shared" si="0"/>
         <v>724.51200806326563</v>
       </c>
-      <c r="L10">
+      <c r="M17" s="20">
+        <f>F17*('[1]Howard_Table 49'!D17/100)</f>
         <v>69.560579826857264</v>
       </c>
-      <c r="M10">
+      <c r="N17" s="20">
+        <f>L17*('[1]Howard_Table 49'!F17/100)</f>
         <v>41.988099993655922</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="7">
+        <v>1975</v>
+      </c>
+      <c r="B18" s="7">
         <v>47996.6</v>
       </c>
-      <c r="B11">
+      <c r="C18" s="7">
         <v>55970.464</v>
       </c>
-      <c r="C11">
+      <c r="D18" s="7">
         <v>43597.464</v>
       </c>
-      <c r="D11">
+      <c r="E18" s="7">
         <v>11748</v>
       </c>
-      <c r="E11">
+      <c r="F18" s="7">
         <v>625</v>
       </c>
-      <c r="F11">
+      <c r="G18" s="7">
         <v>1.1661339344870263</v>
       </c>
-      <c r="G11">
+      <c r="H18" s="7">
         <v>0.9083448410929108</v>
       </c>
-      <c r="H11">
+      <c r="I18" s="7">
         <v>0.24476733768641945</v>
       </c>
-      <c r="I11">
+      <c r="J18" s="7">
         <v>1.3021755707695962E-2</v>
       </c>
-      <c r="J11">
+      <c r="K18" s="2">
         <v>24.476733768641946</v>
       </c>
-      <c r="K11">
+      <c r="L18" s="20">
+        <f t="shared" si="0"/>
         <v>535.95901938565305</v>
       </c>
-      <c r="L11">
+      <c r="M18" s="20">
+        <f>F18*('[1]Howard_Table 49'!D18/100)</f>
         <v>44.125272974593202</v>
       </c>
-      <c r="M11">
+      <c r="N18" s="20">
+        <f>L18*('[1]Howard_Table 49'!F18/100)</f>
         <v>31.90247423032228</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" s="7">
+        <v>1976</v>
+      </c>
+      <c r="B19" s="7">
         <v>54993</v>
       </c>
-      <c r="B12">
+      <c r="C19" s="7">
         <v>63294</v>
       </c>
-      <c r="C12">
+      <c r="D19" s="7">
         <v>48930</v>
       </c>
-      <c r="D12">
+      <c r="E19" s="7">
         <v>13622</v>
       </c>
-      <c r="E12">
+      <c r="F19" s="7">
         <v>742</v>
       </c>
-      <c r="F12">
+      <c r="G19" s="7">
         <v>1.1509464840979762</v>
       </c>
-      <c r="G12">
+      <c r="H19" s="7">
         <v>0.88974960449511753</v>
       </c>
-      <c r="H12">
+      <c r="I19" s="7">
         <v>0.24770425326859782</v>
       </c>
-      <c r="I12">
+      <c r="J19" s="7">
         <v>1.3492626334260724E-2</v>
       </c>
-      <c r="J12">
+      <c r="K19" s="2">
         <v>24.770425326859783</v>
       </c>
-      <c r="K12">
+      <c r="L19" s="20">
+        <f t="shared" si="0"/>
         <v>644.68679495686797</v>
       </c>
-      <c r="L12">
+      <c r="M19" s="20">
+        <f>F19*('[1]Howard_Table 49'!D19/100)</f>
         <v>56.518168812589415</v>
       </c>
-      <c r="M12">
+      <c r="N19" s="20">
+        <f>L19*('[1]Howard_Table 49'!F19/100)</f>
         <v>34.016918122029999</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" s="7">
+        <v>1977</v>
+      </c>
+      <c r="B20" s="7">
         <v>56656.4</v>
       </c>
-      <c r="B13">
+      <c r="C20" s="7">
         <v>65240</v>
       </c>
-      <c r="C13">
+      <c r="D20" s="7">
         <v>50356</v>
       </c>
-      <c r="D13">
+      <c r="E20" s="7">
         <v>14058</v>
       </c>
-      <c r="E13">
+      <c r="F20" s="7">
         <v>826</v>
       </c>
-      <c r="F13">
+      <c r="G20" s="7">
         <v>1.151502742849881</v>
       </c>
-      <c r="G13">
+      <c r="H20" s="7">
         <v>0.88879632309853784</v>
       </c>
-      <c r="H13">
+      <c r="I20" s="7">
         <v>0.24812730777105499</v>
       </c>
-      <c r="I13">
+      <c r="J20" s="7">
         <v>1.4579111980288193E-2</v>
       </c>
-      <c r="J13">
+      <c r="K20" s="2">
         <v>24.8127307771055</v>
       </c>
-      <c r="K13">
+      <c r="L20" s="20">
+        <f t="shared" si="0"/>
         <v>717.32351931330481</v>
       </c>
-      <c r="L13">
+      <c r="M20" s="20">
+        <f>F20*('[1]Howard_Table 49'!D20/100)</f>
         <v>63.382000158868856</v>
       </c>
-      <c r="M13">
+      <c r="N20" s="20">
+        <f>L20*('[1]Howard_Table 49'!F20/100)</f>
         <v>38.543802226392671</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" s="7">
+        <v>1978</v>
+      </c>
+      <c r="B21" s="7">
         <v>58571</v>
       </c>
-      <c r="B14">
+      <c r="C21" s="7">
         <v>67059</v>
       </c>
-      <c r="C14">
+      <c r="D21" s="7">
         <v>51445</v>
       </c>
-      <c r="D14">
+      <c r="E21" s="7">
         <v>14760</v>
       </c>
-      <c r="E14">
+      <c r="F21" s="7">
         <v>854</v>
       </c>
-      <c r="F14">
+      <c r="G21" s="7">
         <v>1.1449181335473186</v>
       </c>
-      <c r="G14">
+      <c r="H21" s="7">
         <v>0.87833569513923271</v>
       </c>
-      <c r="H14">
+      <c r="I21" s="7">
         <v>0.25200184391593111</v>
       </c>
-      <c r="I14">
+      <c r="J21" s="7">
         <v>1.4580594492154821E-2</v>
       </c>
-      <c r="J14">
+      <c r="K21" s="2">
         <v>25.200184391593112</v>
       </c>
-      <c r="K14">
+      <c r="L21" s="20">
+        <f t="shared" si="0"/>
         <v>745.9048598994915</v>
       </c>
-      <c r="L14">
+      <c r="M21" s="20">
+        <f>F21*('[1]Howard_Table 49'!D21/100)</f>
         <v>66.799416852949761</v>
       </c>
-      <c r="M14">
+      <c r="N21" s="20">
+        <f>L21*('[1]Howard_Table 49'!F21/100)</f>
         <v>38.756631964789655</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" s="7">
+        <v>1979</v>
+      </c>
+      <c r="B22" s="7">
         <v>61070</v>
       </c>
-      <c r="B15">
+      <c r="C22" s="7">
         <v>68648</v>
       </c>
-      <c r="C15">
+      <c r="D22" s="7">
         <v>52560</v>
       </c>
-      <c r="D15">
+      <c r="E22" s="7">
         <v>15361</v>
       </c>
-      <c r="E15">
+      <c r="F22" s="7">
         <v>727</v>
       </c>
-      <c r="F15">
+      <c r="G22" s="7">
         <v>1.1240871131488457</v>
       </c>
-      <c r="G15">
+      <c r="H22" s="7">
         <v>0.86065171115113803</v>
       </c>
-      <c r="H15">
+      <c r="I22" s="7">
         <v>0.25153102996561322</v>
       </c>
-      <c r="I15">
+      <c r="J22" s="7">
         <v>1.1904372032094318E-2</v>
       </c>
-      <c r="J15">
+      <c r="K22" s="2">
         <v>25.153102996561323</v>
       </c>
-      <c r="K15">
+      <c r="L22" s="20">
+        <f t="shared" si="0"/>
         <v>646.74702831837783</v>
       </c>
-      <c r="L15">
+      <c r="M22" s="20">
+        <f>F22*('[1]Howard_Table 49'!D22/100)</f>
         <v>59.725761035007608</v>
       </c>
-      <c r="M15">
+      <c r="N22" s="20">
+        <f>L22*('[1]Howard_Table 49'!F22/100)</f>
         <v>37.090930068476837</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" s="7">
+        <v>1980</v>
+      </c>
+      <c r="B23" s="7">
         <v>61042</v>
       </c>
-      <c r="B16">
+      <c r="C23" s="7">
         <v>68727</v>
       </c>
-      <c r="C16">
+      <c r="D23" s="7">
         <v>53203</v>
       </c>
-      <c r="D16">
+      <c r="E23" s="7">
         <v>14922</v>
       </c>
-      <c r="E16">
+      <c r="F23" s="7">
         <v>602</v>
       </c>
-      <c r="F16">
+      <c r="G23" s="7">
         <v>1.1258969234297698</v>
       </c>
-      <c r="G16">
+      <c r="H23" s="7">
         <v>0.87158022345270469</v>
       </c>
-      <c r="H16">
+      <c r="I23" s="7">
         <v>0.24445463779037385</v>
       </c>
-      <c r="I16">
+      <c r="J23" s="7">
         <v>9.8620621866911309E-3</v>
       </c>
-      <c r="J16">
+      <c r="K23" s="2">
         <v>24.445463779037386</v>
       </c>
-      <c r="K16">
+      <c r="L23" s="20">
+        <f t="shared" si="0"/>
         <v>534.68482546888413</v>
       </c>
-      <c r="L16">
+      <c r="M23" s="20">
+        <f>F23*('[1]Howard_Table 49'!D23/100)</f>
         <v>45.83767832641017</v>
       </c>
-      <c r="M16">
+      <c r="N23" s="20">
+        <f>L23*('[1]Howard_Table 49'!F23/100)</f>
         <v>38.426874990267251</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" s="7">
+        <v>1981</v>
+      </c>
+      <c r="B24" s="7">
         <v>62109</v>
       </c>
-      <c r="B17">
+      <c r="C24" s="7">
         <v>68828</v>
       </c>
-      <c r="C17">
+      <c r="D24" s="7">
         <v>53199</v>
       </c>
-      <c r="D17">
+      <c r="E24" s="7">
         <v>15037</v>
       </c>
-      <c r="E17">
+      <c r="F24" s="7">
         <v>592</v>
       </c>
-      <c r="F17">
+      <c r="G24" s="7">
         <v>1.1081807789531308</v>
       </c>
-      <c r="G17">
+      <c r="H24" s="7">
         <v>0.8565425300681061</v>
       </c>
-      <c r="H17">
+      <c r="I24" s="7">
         <v>0.24210661900851729</v>
       </c>
-      <c r="I17">
+      <c r="J24" s="7">
         <v>9.5316298765074307E-3</v>
       </c>
-      <c r="J17">
+      <c r="K24" s="2">
         <v>24.210661900851729</v>
       </c>
-      <c r="K17">
+      <c r="L24" s="20">
+        <f t="shared" si="0"/>
         <v>534.20886848375653</v>
       </c>
-      <c r="L17">
+      <c r="M24" s="20">
+        <f>F24*('[1]Howard_Table 49'!D24/100)</f>
         <v>45.480253388221584</v>
       </c>
-      <c r="M17">
+      <c r="N24" s="20">
+        <f>L24*('[1]Howard_Table 49'!F24/100)</f>
         <v>37.219553291973035</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" s="7">
+        <v>1982</v>
+      </c>
+      <c r="B25" s="7">
         <v>59290</v>
       </c>
-      <c r="B18">
+      <c r="C25" s="7">
         <v>66611</v>
       </c>
-      <c r="C18">
+      <c r="D25" s="7">
         <v>51729</v>
       </c>
-      <c r="D18">
+      <c r="E25" s="7">
         <v>14433</v>
       </c>
-      <c r="E18">
+      <c r="F25" s="7">
         <v>449</v>
       </c>
-      <c r="F18">
+      <c r="G25" s="7">
         <v>1.1234778208804184</v>
       </c>
-      <c r="G18">
+      <c r="H25" s="7">
         <v>0.87247427896778551</v>
       </c>
-      <c r="H18">
+      <c r="I25" s="7">
         <v>0.24343059537864734</v>
       </c>
-      <c r="I18">
+      <c r="J25" s="7">
         <v>7.5729465339854952E-3</v>
       </c>
-      <c r="J18">
+      <c r="K25" s="2">
         <v>24.343059537864733</v>
       </c>
-      <c r="K18">
+      <c r="L25" s="20">
+        <f t="shared" si="0"/>
         <v>399.65185930251761</v>
       </c>
-      <c r="L18">
+      <c r="M25" s="20">
+        <f>F25*('[1]Howard_Table 49'!D25/100)</f>
         <v>31.73353438110151</v>
       </c>
-      <c r="M18">
+      <c r="N25" s="20">
+        <f>L25*('[1]Howard_Table 49'!F25/100)</f>
         <v>26.362362289812062</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" s="7">
+        <v>1983</v>
+      </c>
+      <c r="B26" s="7">
         <v>64947.4</v>
       </c>
-      <c r="B19">
+      <c r="C26" s="7">
         <v>70573</v>
       </c>
-      <c r="C19">
+      <c r="D26" s="7">
         <v>54504</v>
       </c>
-      <c r="D19">
+      <c r="E26" s="7">
         <v>15638</v>
       </c>
-      <c r="E19">
+      <c r="F26" s="7">
         <v>431</v>
       </c>
-      <c r="F19">
+      <c r="G26" s="7">
         <v>1.0866177860853554</v>
       </c>
-      <c r="G19">
+      <c r="H26" s="7">
         <v>0.83920218515290845</v>
       </c>
-      <c r="H19">
+      <c r="I26" s="7">
         <v>0.24077946153348712</v>
       </c>
-      <c r="I19">
+      <c r="J26" s="7">
         <v>6.6361393989597742E-3</v>
       </c>
-      <c r="J19">
+      <c r="K26" s="2">
         <v>24.077946153348712</v>
       </c>
-      <c r="K19">
+      <c r="L26" s="20">
+        <f t="shared" si="0"/>
         <v>396.64360874555427</v>
       </c>
-      <c r="L19">
+      <c r="M26" s="20">
+        <f>F26*('[1]Howard_Table 49'!D26/100)</f>
         <v>32.366119917804198</v>
       </c>
-      <c r="M19">
+      <c r="N26" s="20">
+        <f>L26*('[1]Howard_Table 49'!F26/100)</f>
         <v>26.738864309847372</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" s="7">
+        <v>1984</v>
+      </c>
+      <c r="B27" s="7">
         <v>68448.5</v>
       </c>
-      <c r="B20">
+      <c r="C27" s="7">
         <v>75732</v>
       </c>
-      <c r="C20">
+      <c r="D27" s="7">
         <v>58643</v>
       </c>
-      <c r="D20">
+      <c r="E27" s="7">
         <v>16724</v>
       </c>
-      <c r="E20">
+      <c r="F27" s="7">
         <v>365</v>
       </c>
-      <c r="F20">
+      <c r="G27" s="7">
         <v>1.1064084676800807</v>
       </c>
-      <c r="G20">
+      <c r="H27" s="7">
         <v>0.85674631292139347</v>
       </c>
-      <c r="H20">
+      <c r="I27" s="7">
         <v>0.24432967851742551</v>
       </c>
-      <c r="I20">
+      <c r="J27" s="7">
         <v>5.3324762412616782E-3</v>
       </c>
-      <c r="J20">
+      <c r="K27" s="2">
         <v>24.43296785174255</v>
       </c>
-      <c r="K20">
+      <c r="L27" s="20">
+        <f t="shared" si="0"/>
         <v>329.89624597264037</v>
       </c>
-      <c r="L20">
+      <c r="M27" s="20">
+        <f>F27*('[1]Howard_Table 49'!D27/100)</f>
         <v>27.946216939788208</v>
       </c>
-      <c r="M20">
+      <c r="N27" s="20">
+        <f>L27*('[1]Howard_Table 49'!F27/100)</f>
         <v>20.53175243780057</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" s="7">
+        <v>1985</v>
+      </c>
+      <c r="B28" s="7">
         <v>66983</v>
       </c>
-      <c r="B21">
+      <c r="C28" s="7">
         <v>71482</v>
       </c>
-      <c r="C21">
+      <c r="D28" s="7">
         <v>54816</v>
       </c>
-      <c r="D21">
+      <c r="E28" s="7">
         <v>16371</v>
       </c>
-      <c r="E21">
+      <c r="F28" s="7">
         <v>295</v>
       </c>
-      <c r="F21">
+      <c r="G28" s="7">
         <v>1.0671662959258319</v>
       </c>
-      <c r="G21">
+      <c r="H28" s="7">
         <v>0.8183568965259842</v>
       </c>
-      <c r="H21">
+      <c r="I28" s="7">
         <v>0.24440529686636908</v>
       </c>
-      <c r="I21">
+      <c r="J28" s="7">
         <v>4.4041025334786441E-3</v>
       </c>
-      <c r="J21">
+      <c r="K28" s="2">
         <v>24.440529686636907</v>
       </c>
-      <c r="K21">
+      <c r="L28" s="20">
+        <f t="shared" si="0"/>
         <v>276.43301810245936</v>
       </c>
-      <c r="L21">
+      <c r="M28" s="20">
+        <f>F28*('[1]Howard_Table 49'!D28/100)</f>
         <v>24.034406012842965</v>
       </c>
-      <c r="M21">
+      <c r="N28" s="20">
+        <f>L28*('[1]Howard_Table 49'!F28/100)</f>
         <v>19.375072558848153</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" s="7">
+        <v>1986</v>
+      </c>
+      <c r="B29" s="7">
         <v>70905</v>
       </c>
-      <c r="B22">
+      <c r="C29" s="7">
         <v>75368.2</v>
       </c>
-      <c r="C22">
+      <c r="D29" s="7">
         <v>57121</v>
       </c>
-      <c r="D22">
+      <c r="E29" s="7">
         <v>17934.2</v>
       </c>
-      <c r="E22">
+      <c r="F29" s="7">
         <v>313</v>
       </c>
-      <c r="F22">
+      <c r="G29" s="7">
         <v>1.0629461956138495</v>
       </c>
-      <c r="G22">
+      <c r="H29" s="7">
         <v>0.80559904097031243</v>
       </c>
-      <c r="H22">
+      <c r="I29" s="7">
         <v>0.25293279740497848</v>
       </c>
-      <c r="I22">
+      <c r="J29" s="7">
         <v>4.4143572385586345E-3</v>
       </c>
-      <c r="J22">
+      <c r="K29" s="2">
         <v>25.293279740497848</v>
       </c>
-      <c r="K22">
+      <c r="L29" s="20">
+        <f t="shared" si="0"/>
         <v>294.46457524526261</v>
       </c>
-      <c r="L22">
+      <c r="M29" s="20">
+        <f>F29*('[1]Howard_Table 49'!D29/100)</f>
         <v>25.107508622047931</v>
       </c>
-      <c r="M22">
+      <c r="N29" s="20">
+        <f>L29*('[1]Howard_Table 49'!F29/100)</f>
         <v>23.031441592423821</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="A30" s="7">
+        <v>1987</v>
+      </c>
+      <c r="B30" s="7">
         <v>74361</v>
       </c>
-      <c r="B23">
+      <c r="C30" s="7">
         <v>78522</v>
       </c>
-      <c r="C23">
+      <c r="D30" s="7">
         <v>59508</v>
       </c>
-      <c r="D23">
+      <c r="E30" s="7">
         <v>18694</v>
       </c>
-      <c r="E23">
+      <c r="F30" s="7">
         <v>320</v>
       </c>
-      <c r="F23">
+      <c r="G30" s="7">
         <v>1.0559567515229757</v>
       </c>
-      <c r="G23">
+      <c r="H30" s="7">
         <v>0.80025819986283131</v>
       </c>
-      <c r="H23">
+      <c r="I30" s="7">
         <v>0.25139522061295572</v>
       </c>
-      <c r="I23">
+      <c r="J30" s="7">
         <v>4.3033310471887144E-3</v>
       </c>
-      <c r="J23">
+      <c r="K30" s="2">
         <v>25.139522061295573</v>
       </c>
-      <c r="K23">
+      <c r="L30" s="20">
+        <f t="shared" si="0"/>
         <v>303.04271414380685</v>
       </c>
-      <c r="L23">
+      <c r="M30" s="20">
+        <f>F30*('[1]Howard_Table 49'!D30/100)</f>
         <v>26.080526987968</v>
       </c>
-      <c r="M23">
+      <c r="N30" s="20">
+        <f>L30*('[1]Howard_Table 49'!F30/100)</f>
         <v>24.8807803827073</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="A31" s="7">
+        <v>1988</v>
+      </c>
+      <c r="B31" s="7">
         <v>76587</v>
       </c>
-      <c r="B24">
+      <c r="C31" s="7">
         <v>80730</v>
       </c>
-      <c r="C24">
+      <c r="D31" s="7">
         <v>60668</v>
       </c>
-      <c r="D24">
+      <c r="E31" s="7">
         <v>19685</v>
       </c>
-      <c r="E24">
+      <c r="F31" s="7">
         <v>377</v>
       </c>
-      <c r="F24">
+      <c r="G31" s="7">
         <v>1.054095342551608</v>
       </c>
-      <c r="G24">
+      <c r="H31" s="7">
         <v>0.79214488098502356</v>
       </c>
-      <c r="H24">
+      <c r="I31" s="7">
         <v>0.25702795513598914</v>
       </c>
-      <c r="I24">
+      <c r="J31" s="7">
         <v>4.9225064305952705E-3</v>
       </c>
-      <c r="J24">
+      <c r="K31" s="2">
         <v>25.702795513598915</v>
       </c>
-      <c r="K24">
+      <c r="L31" s="20">
+        <f t="shared" si="0"/>
         <v>357.65265700483093</v>
       </c>
-      <c r="L24">
+      <c r="M31" s="20">
+        <f>F31*('[1]Howard_Table 49'!D31/100)</f>
         <v>31.306883365200768</v>
       </c>
-      <c r="M24">
+      <c r="N31" s="20">
+        <f>L31*('[1]Howard_Table 49'!F31/100)</f>
         <v>32.327804832118538</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="A32" s="7">
+        <v>1989</v>
+      </c>
+      <c r="B32" s="7">
         <v>76785.7</v>
       </c>
-      <c r="B25">
+      <c r="C32" s="7">
         <v>81772</v>
       </c>
-      <c r="C25">
+      <c r="D32" s="7">
         <v>61234</v>
       </c>
-      <c r="D25">
+      <c r="E32" s="7">
         <v>20220</v>
       </c>
-      <c r="E25">
+      <c r="F32" s="7">
         <v>318</v>
       </c>
-      <c r="F25">
+      <c r="G32" s="7">
         <v>1.0649378725465808</v>
       </c>
-      <c r="G25">
+      <c r="H32" s="7">
         <v>0.79746619487743153</v>
       </c>
-      <c r="H25">
+      <c r="I32" s="7">
         <v>0.2633302815498198</v>
       </c>
-      <c r="I25">
+      <c r="J32" s="7">
         <v>4.1413961193295101E-3</v>
       </c>
-      <c r="J25">
+      <c r="K32" s="2">
         <v>26.333028154981982</v>
       </c>
-      <c r="K25">
+      <c r="L32" s="20">
+        <f t="shared" si="0"/>
         <v>298.60896884018979</v>
       </c>
-      <c r="L25">
+      <c r="M32" s="20">
+        <f>F32*('[1]Howard_Table 49'!D32/100)</f>
         <v>25.986739393147595</v>
       </c>
-      <c r="M25">
+      <c r="N32" s="20">
+        <f>L32*('[1]Howard_Table 49'!F32/100)</f>
         <v>27.77242587154872</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+    </row>
+    <row r="33" spans="1:29">
+      <c r="A33" s="7">
+        <v>1990</v>
+      </c>
+      <c r="B33" s="7">
         <v>78679</v>
       </c>
-      <c r="B26">
+      <c r="C33" s="7">
         <v>84040</v>
       </c>
-      <c r="C26">
+      <c r="D33" s="7">
         <v>62036</v>
       </c>
-      <c r="D26">
+      <c r="E33" s="7">
         <v>21736</v>
       </c>
-      <c r="E26">
+      <c r="F33" s="7">
         <v>268</v>
       </c>
-      <c r="F26">
+      <c r="G33" s="7">
         <v>1.068137622491389</v>
       </c>
-      <c r="G26">
+      <c r="H33" s="7">
         <v>0.78846960434169222</v>
       </c>
-      <c r="H26">
+      <c r="I33" s="7">
         <v>0.27626177251871531</v>
       </c>
-      <c r="I26">
+      <c r="J33" s="7">
         <v>3.4062456309815834E-3</v>
       </c>
-      <c r="J26">
+      <c r="K33" s="2">
         <v>27.626177251871532</v>
       </c>
-      <c r="K26">
+      <c r="L33" s="20">
+        <f t="shared" si="0"/>
         <v>250.9039980961447</v>
       </c>
-      <c r="L26">
+      <c r="M33" s="20">
+        <f>F33*('[1]Howard_Table 49'!D33/100)</f>
         <v>21.138113353536657</v>
       </c>
-      <c r="M26">
+      <c r="N33" s="20">
+        <f>L33*('[1]Howard_Table 49'!F33/100)</f>
         <v>23.499367287744807</v>
       </c>
-      <c r="N26">
+      <c r="O33" s="21">
         <v>78679</v>
       </c>
-      <c r="O26">
+      <c r="P33" s="22">
         <v>84040</v>
       </c>
-      <c r="P26">
+      <c r="Q33" s="22">
         <v>62036</v>
       </c>
-      <c r="Q26">
+      <c r="R33" s="22">
         <v>21736</v>
       </c>
-      <c r="R26">
+      <c r="S33" s="22">
         <v>268</v>
       </c>
-      <c r="S26">
+      <c r="T33" s="23">
+        <f>SUM(O33:S33)-SUM(B33:F33)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34" s="7">
+        <v>1991</v>
+      </c>
+      <c r="B34" s="7">
         <v>79427</v>
       </c>
-      <c r="B27">
+      <c r="C34" s="7">
         <v>86143</v>
       </c>
-      <c r="C27">
+      <c r="D34" s="7">
         <v>62294</v>
       </c>
-      <c r="D27">
+      <c r="E34" s="7">
         <v>23662</v>
       </c>
-      <c r="E27">
+      <c r="F34" s="7">
         <v>187</v>
       </c>
-      <c r="F27">
+      <c r="G34" s="7">
         <v>1.0845556296977099</v>
       </c>
-      <c r="G27">
+      <c r="H34" s="7">
         <v>0.78429249499540454</v>
       </c>
-      <c r="H27">
+      <c r="I34" s="7">
         <v>0.2979087715764161</v>
       </c>
-      <c r="I27">
+      <c r="J34" s="7">
         <v>2.3543631258891814E-3</v>
       </c>
-      <c r="J27">
+      <c r="K34" s="2">
         <v>29.79087715764161</v>
       </c>
-      <c r="K27">
+      <c r="L34" s="20">
+        <f t="shared" si="0"/>
         <v>172.42084673159746</v>
       </c>
-      <c r="L27">
+      <c r="M34" s="20">
+        <f>F34*('[1]Howard_Table 49'!D34/100)</f>
         <v>15.000465534401387</v>
       </c>
-      <c r="M27">
+      <c r="N34" s="20">
+        <f>L34*('[1]Howard_Table 49'!F34/100)</f>
         <v>17.172991696155648</v>
       </c>
-      <c r="N27">
+      <c r="O34" s="21">
         <v>79427</v>
       </c>
-      <c r="O27">
+      <c r="P34" s="22">
         <v>86143</v>
       </c>
-      <c r="P27">
+      <c r="Q34" s="22">
         <v>62294</v>
       </c>
-      <c r="Q27">
+      <c r="R34" s="22">
         <v>23662</v>
       </c>
-      <c r="R27">
+      <c r="S34" s="22">
         <v>187</v>
       </c>
-      <c r="S27">
+      <c r="T34" s="23">
+        <f t="shared" ref="T34:T49" si="1">SUM(O34:S34)-SUM(B34:F34)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" s="7">
+        <v>1992</v>
+      </c>
+      <c r="B35" s="7">
         <v>82868</v>
       </c>
-      <c r="B28">
+      <c r="C35" s="7">
         <v>89507.044999999998</v>
       </c>
-      <c r="C28">
+      <c r="D35" s="7">
         <v>63145.044999999998</v>
       </c>
-      <c r="D28">
+      <c r="E35" s="7">
         <v>26185</v>
       </c>
-      <c r="E28">
+      <c r="F35" s="7">
         <v>177</v>
       </c>
-      <c r="F28">
+      <c r="G35" s="7">
         <v>1.0801159072259496</v>
       </c>
-      <c r="G28">
+      <c r="H35" s="7">
         <v>0.76199552300043438</v>
       </c>
-      <c r="H28">
+      <c r="I35" s="7">
         <v>0.31598445720905538</v>
       </c>
-      <c r="I28">
+      <c r="J35" s="7">
         <v>2.1359270164599121E-3</v>
       </c>
-      <c r="J28">
+      <c r="K35" s="2">
         <v>31.598445720905538</v>
       </c>
-      <c r="K28">
+      <c r="L35" s="20">
+        <f t="shared" si="0"/>
         <v>163.87130197405131</v>
       </c>
-      <c r="L28">
+      <c r="M35" s="20">
+        <f>F35*('[1]Howard_Table 49'!D35/100)</f>
         <v>14.097487047479339</v>
       </c>
-      <c r="M28">
+      <c r="N35" s="20">
+        <f>L35*('[1]Howard_Table 49'!F35/100)</f>
         <v>18.113818264734242</v>
       </c>
-      <c r="N28">
+      <c r="O35" s="21">
         <v>82868</v>
       </c>
-      <c r="O28">
+      <c r="P35" s="22">
         <v>89507.044999999998</v>
       </c>
-      <c r="P28">
+      <c r="Q35" s="22">
         <v>63145.044999999998</v>
       </c>
-      <c r="Q28">
+      <c r="R35" s="22">
         <v>26185</v>
       </c>
-      <c r="R28">
+      <c r="S35" s="22">
         <v>177</v>
       </c>
-      <c r="S28">
+      <c r="T35" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+    </row>
+    <row r="36" spans="1:29">
+      <c r="A36" s="7">
+        <v>1993</v>
+      </c>
+      <c r="B36" s="7">
         <v>84857.3</v>
       </c>
-      <c r="B29">
+      <c r="C36" s="7">
         <v>91470.731</v>
       </c>
-      <c r="C29">
+      <c r="D36" s="7">
         <v>63226.731</v>
       </c>
-      <c r="D29">
+      <c r="E36" s="7">
         <v>28011</v>
       </c>
-      <c r="E29">
+      <c r="F36" s="7">
         <v>233</v>
       </c>
-      <c r="F29">
+      <c r="G36" s="7">
         <v>1.0779359112297942</v>
       </c>
-      <c r="G29">
+      <c r="H36" s="7">
         <v>0.7450947767605145</v>
       </c>
-      <c r="H29">
+      <c r="I36" s="7">
         <v>0.33009534830827758</v>
       </c>
-      <c r="I29">
+      <c r="J36" s="7">
         <v>2.745786161002059E-3</v>
       </c>
-      <c r="J29">
+      <c r="K36" s="2">
         <v>33.009534830827761</v>
       </c>
-      <c r="K29">
+      <c r="L36" s="20">
+        <f t="shared" si="0"/>
         <v>216.15385253672019</v>
       </c>
-      <c r="L29">
+      <c r="M36" s="20">
+        <f>F36*('[1]Howard_Table 49'!D36/100)</f>
         <v>19.946966228571902</v>
       </c>
-      <c r="M29">
+      <c r="N36" s="20">
+        <f>L36*('[1]Howard_Table 49'!F36/100)</f>
         <v>21.84314116331938</v>
       </c>
-      <c r="N29">
+      <c r="O36" s="21">
         <v>84857.3</v>
       </c>
-      <c r="O29">
+      <c r="P36" s="22">
         <v>91470.731</v>
       </c>
-      <c r="P29">
+      <c r="Q36" s="22">
         <v>63226.731</v>
       </c>
-      <c r="Q29">
+      <c r="R36" s="22">
         <v>28011</v>
       </c>
-      <c r="R29">
+      <c r="S36" s="22">
         <v>233</v>
       </c>
-      <c r="S29">
+      <c r="T36" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+    </row>
+    <row r="37" spans="1:29">
+      <c r="A37" s="7">
+        <v>1994</v>
+      </c>
+      <c r="B37" s="7">
         <v>89080.3</v>
       </c>
-      <c r="B30">
+      <c r="C37" s="7">
         <v>95770.766000000003</v>
       </c>
-      <c r="C30">
+      <c r="D37" s="7">
         <v>64842.165999999997</v>
       </c>
-      <c r="D30">
+      <c r="E37" s="7">
         <v>30669.599999999999</v>
       </c>
-      <c r="E30">
+      <c r="F37" s="7">
         <v>259</v>
       </c>
-      <c r="F30">
+      <c r="G37" s="7">
         <v>1.0751060110933619</v>
       </c>
-      <c r="G30">
+      <c r="H37" s="7">
         <v>0.72790691095562088</v>
       </c>
-      <c r="H30">
+      <c r="I37" s="7">
         <v>0.34429161105205075</v>
       </c>
-      <c r="I30">
+      <c r="J37" s="7">
         <v>2.9074890856901018E-3</v>
       </c>
-      <c r="J30">
+      <c r="K37" s="2">
         <v>34.429161105205075</v>
       </c>
-      <c r="K30">
+      <c r="L37" s="20">
+        <f t="shared" si="0"/>
         <v>240.90647557314097</v>
       </c>
-      <c r="L30">
+      <c r="M37" s="20">
+        <f>F37*('[1]Howard_Table 49'!D37/100)</f>
         <v>22.567840639376545</v>
       </c>
-      <c r="M30">
+      <c r="N37" s="20">
+        <f>L37*('[1]Howard_Table 49'!F37/100)</f>
         <v>24.587023801924566</v>
       </c>
-      <c r="N30">
+      <c r="O37" s="21">
         <v>89080.3</v>
       </c>
-      <c r="O30">
+      <c r="P37" s="22">
         <v>95770.766000000003</v>
       </c>
-      <c r="P30">
+      <c r="Q37" s="22">
         <v>64842.165999999997</v>
       </c>
-      <c r="Q30">
+      <c r="R37" s="22">
         <v>30669.599999999999</v>
       </c>
-      <c r="R30">
+      <c r="S37" s="21">
         <v>259</v>
       </c>
-      <c r="S30">
+      <c r="T37" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+    </row>
+    <row r="38" spans="1:29">
+      <c r="A38" s="7">
+        <v>1995</v>
+      </c>
+      <c r="B38" s="7">
         <v>89508.5</v>
       </c>
-      <c r="B31">
+      <c r="C38" s="7">
         <v>96528.701000000001</v>
       </c>
-      <c r="C31">
+      <c r="D38" s="7">
         <v>64810.700999999994</v>
       </c>
-      <c r="D31">
+      <c r="E38" s="7">
         <v>31389</v>
       </c>
-      <c r="E31">
+      <c r="F38" s="7">
         <v>329</v>
       </c>
-      <c r="F31">
+      <c r="G38" s="7">
         <v>1.0784305512884251</v>
       </c>
-      <c r="G31">
+      <c r="H38" s="7">
         <v>0.72407314389136224</v>
       </c>
-      <c r="H31">
+      <c r="I38" s="7">
         <v>0.35068177882547469</v>
       </c>
-      <c r="I31">
+      <c r="J38" s="7">
         <v>3.6756285715881733E-3</v>
       </c>
-      <c r="J31">
+      <c r="K38" s="2">
         <v>35.068177882547467</v>
       </c>
-      <c r="K31">
+      <c r="L38" s="20">
+        <f t="shared" si="0"/>
         <v>305.0729595957165</v>
       </c>
-      <c r="L31">
+      <c r="M38" s="20">
+        <f>F38*('[1]Howard_Table 49'!D38/100)</f>
         <v>30.300927604532472</v>
       </c>
-      <c r="M31">
+      <c r="N38" s="20">
+        <f>L38*('[1]Howard_Table 49'!F38/100)</f>
         <v>37.558985383891397</v>
       </c>
-      <c r="N31">
+      <c r="O38" s="21">
         <v>89508.5</v>
       </c>
-      <c r="O31">
+      <c r="P38" s="22">
         <v>96528.701000000001</v>
       </c>
-      <c r="P31">
+      <c r="Q38" s="22">
         <v>64810.700999999994</v>
       </c>
-      <c r="Q31">
+      <c r="R38" s="22">
         <v>31389</v>
       </c>
-      <c r="R31">
+      <c r="S38" s="22">
         <v>329</v>
       </c>
-      <c r="S31">
+      <c r="T38" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+    </row>
+    <row r="39" spans="1:29">
+      <c r="A39" s="7">
+        <v>1996</v>
+      </c>
+      <c r="B39" s="7">
         <v>90381.3</v>
       </c>
-      <c r="B32">
+      <c r="C39" s="7">
         <v>98410.017999999996</v>
       </c>
-      <c r="C32">
+      <c r="D39" s="7">
         <v>64025.017999999996</v>
       </c>
-      <c r="D32">
+      <c r="E39" s="7">
         <v>33979</v>
       </c>
-      <c r="E32">
+      <c r="F39" s="7">
         <v>406</v>
       </c>
-      <c r="F32">
+      <c r="G39" s="7">
         <v>1.0888316277814105</v>
       </c>
-      <c r="G32">
+      <c r="H39" s="7">
         <v>0.70838788554712084</v>
       </c>
-      <c r="H32">
+      <c r="I39" s="7">
         <v>0.37595166256736734</v>
       </c>
-      <c r="I32">
+      <c r="J39" s="7">
         <v>4.4920796669222504E-3</v>
       </c>
-      <c r="J32">
+      <c r="K39" s="2">
         <v>37.595166256736732</v>
       </c>
-      <c r="K32">
+      <c r="L39" s="20">
+        <f t="shared" si="0"/>
         <v>372.87675122668918</v>
       </c>
-      <c r="L32">
+      <c r="M39" s="20">
+        <f>F39*('[1]Howard_Table 49'!D39/100)</f>
         <v>36.093551555112413</v>
       </c>
-      <c r="M32">
+      <c r="N39" s="20">
+        <f>L39*('[1]Howard_Table 49'!F39/100)</f>
         <v>40.814358384312975</v>
       </c>
-      <c r="N32">
+      <c r="O39" s="21">
         <v>90381.3</v>
       </c>
-      <c r="O32">
+      <c r="P39" s="22">
         <v>98410.017999999996</v>
       </c>
-      <c r="P32">
+      <c r="Q39" s="22">
         <v>64025.017999999996</v>
       </c>
-      <c r="Q32">
+      <c r="R39" s="22">
         <v>33979</v>
       </c>
-      <c r="R32">
+      <c r="S39" s="22">
         <v>406</v>
       </c>
-      <c r="S32">
+      <c r="T39" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+    </row>
+    <row r="40" spans="1:29">
+      <c r="A40" s="7">
+        <v>1997</v>
+      </c>
+      <c r="B40" s="7">
         <v>95028.800000000003</v>
       </c>
-      <c r="B33">
+      <c r="C40" s="7">
         <v>101591.283</v>
       </c>
-      <c r="C33">
+      <c r="D40" s="7">
         <v>66057.282999999996</v>
       </c>
-      <c r="D33">
+      <c r="E40" s="7">
         <v>35209</v>
       </c>
-      <c r="E33">
+      <c r="F40" s="7">
         <v>298</v>
       </c>
-      <c r="F33">
+      <c r="G40" s="7">
         <v>1.069057832993787</v>
       </c>
-      <c r="G33">
+      <c r="H40" s="7">
         <v>0.69512908718199107</v>
       </c>
-      <c r="H33">
+      <c r="I40" s="7">
         <v>0.37050872998501505</v>
       </c>
-      <c r="I33">
+      <c r="J40" s="7">
         <v>3.1358914350175945E-3</v>
       </c>
-      <c r="J33">
+      <c r="K40" s="2">
         <v>37.050872998501504</v>
       </c>
-      <c r="K33">
+      <c r="L40" s="20">
+        <f t="shared" si="0"/>
         <v>278.75012071655794</v>
       </c>
-      <c r="L33">
+      <c r="M40" s="20">
+        <f>F40*('[1]Howard_Table 49'!D40/100)</f>
         <v>28.860727711129144</v>
       </c>
-      <c r="M33">
+      <c r="N40" s="20">
+        <f>L40*('[1]Howard_Table 49'!F40/100)</f>
         <v>29.23525410858921</v>
       </c>
-      <c r="N33">
+      <c r="O40" s="21">
         <v>95028.800000000003</v>
       </c>
-      <c r="O33">
+      <c r="P40" s="21">
         <v>101591.283</v>
       </c>
-      <c r="P33">
+      <c r="Q40" s="22">
         <v>66057.282999999996</v>
       </c>
-      <c r="Q33">
+      <c r="R40" s="22">
         <v>35209</v>
       </c>
-      <c r="R33">
+      <c r="S40" s="24">
         <v>298</v>
       </c>
-      <c r="S33">
+      <c r="T40" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+    </row>
+    <row r="41" spans="1:29">
+      <c r="A41" s="7">
+        <v>1998</v>
+      </c>
+      <c r="B41" s="7">
         <v>94510</v>
       </c>
-      <c r="B34">
+      <c r="C41" s="7">
         <v>101218</v>
       </c>
-      <c r="C34">
+      <c r="D41" s="7">
         <v>65122</v>
       </c>
-      <c r="D34">
+      <c r="E41" s="7">
         <v>35771</v>
       </c>
-      <c r="E34">
+      <c r="F41" s="7">
         <v>249</v>
       </c>
-      <c r="F34">
+      <c r="G41" s="7">
         <v>1.0709766162310868</v>
       </c>
-      <c r="G34">
+      <c r="H41" s="7">
         <v>0.68904877790709973</v>
       </c>
-      <c r="H34">
+      <c r="I41" s="7">
         <v>0.37848904877790712</v>
       </c>
-      <c r="I34">
+      <c r="J41" s="7">
         <v>2.6346418368426621E-3</v>
       </c>
-      <c r="J34">
+      <c r="K41" s="2">
         <v>37.848904877790716</v>
       </c>
-      <c r="K34">
+      <c r="L41" s="20">
+        <f t="shared" si="0"/>
         <v>232.49807346519393</v>
       </c>
-      <c r="L34">
+      <c r="M41" s="20">
+        <f>F41*('[1]Howard_Table 49'!D41/100)</f>
         <v>22.880378366757778</v>
       </c>
-      <c r="M34">
+      <c r="N41" s="20">
+        <f>L41*('[1]Howard_Table 49'!F41/100)</f>
         <v>21.49687541438843</v>
       </c>
-      <c r="N34">
+      <c r="O41" s="21">
         <v>94510</v>
       </c>
-      <c r="O34">
+      <c r="P41" s="21">
         <v>101218</v>
       </c>
-      <c r="P34">
+      <c r="Q41" s="22">
         <v>65122</v>
       </c>
-      <c r="Q34">
+      <c r="R41" s="22">
         <v>35771</v>
       </c>
-      <c r="R34">
+      <c r="S41" s="24">
         <v>249</v>
       </c>
-      <c r="S34">
+      <c r="T41" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+    </row>
+    <row r="42" spans="1:29" ht="16" thickBot="1">
+      <c r="A42" s="25">
+        <v>1999</v>
+      </c>
+      <c r="B42" s="25">
         <v>97019.5</v>
       </c>
-      <c r="B35">
+      <c r="C42" s="25">
         <v>100689.94500000001</v>
       </c>
-      <c r="C35">
+      <c r="D42" s="25">
         <v>63637.945</v>
       </c>
-      <c r="D35">
+      <c r="E42" s="25">
         <v>36727</v>
       </c>
-      <c r="E35">
+      <c r="F42" s="25">
         <v>255</v>
       </c>
-      <c r="F35">
+      <c r="G42" s="25">
         <v>1.0378320337664078</v>
       </c>
-      <c r="G35">
+      <c r="H42" s="25">
         <v>0.65592942655857844</v>
       </c>
-      <c r="H35">
+      <c r="I42" s="25">
         <v>0.37855276516576564</v>
       </c>
-      <c r="I35">
+      <c r="J42" s="25">
         <v>2.6283376022346022E-3</v>
       </c>
-      <c r="J35">
+      <c r="K42" s="2">
         <v>37.855276516576566</v>
       </c>
-      <c r="K35">
+      <c r="L42" s="20">
+        <f t="shared" si="0"/>
         <v>245.70449909372778</v>
       </c>
-      <c r="L35">
+      <c r="M42" s="20">
+        <f>F42*('[1]Howard_Table 49'!D42/100)</f>
         <v>26.685269378198811</v>
       </c>
-      <c r="M35">
+      <c r="N42" s="20">
+        <f>L42*('[1]Howard_Table 49'!F42/100)</f>
         <v>23.181087313279857</v>
       </c>
-      <c r="N35">
+      <c r="O42" s="21">
         <v>97019.5</v>
       </c>
-      <c r="O35">
+      <c r="P42" s="21">
         <v>100689.94500000001</v>
       </c>
-      <c r="P35">
+      <c r="Q42" s="22">
         <v>63637.945</v>
       </c>
-      <c r="Q35">
+      <c r="R42" s="22">
         <v>36727</v>
       </c>
-      <c r="R35">
+      <c r="S42" s="24">
         <v>255</v>
       </c>
-      <c r="S35">
+      <c r="T42" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+    </row>
+    <row r="43" spans="1:29">
+      <c r="A43" s="7">
+        <v>2000</v>
+      </c>
+      <c r="B43" s="2">
         <v>94491.3</v>
       </c>
-      <c r="B36">
+      <c r="C43" s="2">
         <v>99348.231</v>
       </c>
-      <c r="C36">
+      <c r="D43" s="2">
         <v>63576.231</v>
       </c>
-      <c r="D36">
+      <c r="E43" s="2">
         <v>35447</v>
       </c>
-      <c r="E36">
+      <c r="F43" s="2">
         <v>254</v>
       </c>
-      <c r="F36">
+      <c r="G43" s="2">
         <v>1.0514008273777586</v>
       </c>
-      <c r="G36">
+      <c r="H43" s="2">
         <v>0.67282629194433785</v>
       </c>
-      <c r="H36">
+      <c r="I43" s="2">
         <v>0.37513506534464025</v>
       </c>
-      <c r="I36">
+      <c r="J43" s="2">
         <v>2.6880781616931931E-3</v>
       </c>
-      <c r="J36">
+      <c r="K43" s="2">
         <v>37.513506534464028</v>
       </c>
-      <c r="K36">
+      <c r="L43" s="20">
+        <f t="shared" si="0"/>
         <v>241.58246159410731</v>
       </c>
-      <c r="L36">
+      <c r="M43" s="20">
+        <f>F43*('[1]Howard_Table 49'!D43/100)</f>
         <v>28.872534862911266</v>
       </c>
-      <c r="M36">
+      <c r="N43" s="20">
+        <f>L43*('[1]Howard_Table 49'!F43/100)</f>
         <v>24.669327141292349</v>
       </c>
-      <c r="N36">
+      <c r="O43" s="21">
         <v>94491.3</v>
       </c>
-      <c r="O36">
+      <c r="P43" s="21">
         <v>99348.231</v>
       </c>
-      <c r="P36">
+      <c r="Q43" s="22">
         <v>63576.231</v>
       </c>
-      <c r="Q36">
+      <c r="R43" s="22">
         <v>35447</v>
       </c>
-      <c r="R36">
+      <c r="S43" s="24">
         <v>254</v>
       </c>
-      <c r="S36">
+      <c r="T43" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+    </row>
+    <row r="44" spans="1:29" ht="16" thickBot="1">
+      <c r="A44" s="25">
+        <v>2001</v>
+      </c>
+      <c r="B44" s="2">
         <v>88912.9</v>
       </c>
-      <c r="B37">
+      <c r="C44" s="2">
         <v>94231.664000000004</v>
       </c>
-      <c r="C37">
+      <c r="D44" s="2">
         <v>59379.664000000004</v>
       </c>
-      <c r="D37">
+      <c r="E44" s="2">
         <v>34527</v>
       </c>
-      <c r="E37">
+      <c r="F44" s="2">
         <v>268</v>
       </c>
-      <c r="F37">
+      <c r="G44" s="2">
         <v>1.0598199361397505</v>
       </c>
-      <c r="G37">
+      <c r="H44" s="2">
         <v>0.66784081949863305</v>
       </c>
-      <c r="H37">
+      <c r="I44" s="2">
         <v>0.38832385401893316</v>
       </c>
-      <c r="I37">
+      <c r="J44" s="2">
         <v>3.0141857930626494E-3</v>
       </c>
-      <c r="J37">
+      <c r="K44" s="2">
         <v>38.832385401893319</v>
       </c>
-      <c r="K37">
+      <c r="L44" s="20">
+        <f t="shared" si="0"/>
         <v>252.87314463639311</v>
       </c>
-      <c r="L37">
+      <c r="M44" s="20">
+        <f>F44*('[1]Howard_Table 49'!D44/100)</f>
         <v>33.165476517347756</v>
       </c>
-      <c r="M37">
+      <c r="N44" s="20">
+        <f>L44*('[1]Howard_Table 49'!F44/100)</f>
         <v>26.79450323379892</v>
       </c>
-      <c r="N37">
+      <c r="O44" s="21">
         <v>88912.9</v>
       </c>
-      <c r="O37">
+      <c r="P44" s="21">
         <v>94231.664000000004</v>
       </c>
-      <c r="P37">
+      <c r="Q44" s="22">
         <v>59379.664000000004</v>
       </c>
-      <c r="Q37">
+      <c r="R44" s="22">
         <v>34527</v>
       </c>
-      <c r="R37">
+      <c r="S44" s="24">
         <v>268</v>
       </c>
-      <c r="S37">
+      <c r="T44" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+    </row>
+    <row r="45" spans="1:29" ht="16" thickBot="1">
+      <c r="A45" s="25">
+        <v>2002</v>
+      </c>
+      <c r="B45" s="21">
         <v>89636</v>
       </c>
-      <c r="B38">
+      <c r="C45" s="21">
         <v>93966.722000000009</v>
       </c>
-      <c r="C38">
+      <c r="D45" s="22">
         <v>59062.722000000002</v>
       </c>
-      <c r="D38">
+      <c r="E45" s="22">
         <v>34579</v>
       </c>
-      <c r="E38">
+      <c r="F45" s="21">
         <v>261</v>
       </c>
-      <c r="F38">
+      <c r="G45" s="26">
         <v>1.0483145388013746</v>
       </c>
-      <c r="G38">
+      <c r="H45" s="26">
         <v>0.65891742157168998</v>
       </c>
-      <c r="H38">
+      <c r="I45" s="26">
         <v>0.38577134187156947</v>
       </c>
-      <c r="I38">
+      <c r="J45" s="26">
         <v>2.9117765183631576E-3</v>
       </c>
-      <c r="J38">
+      <c r="K45" s="27">
         <v>38.57713418715695</v>
       </c>
-      <c r="K38">
+      <c r="L45" s="20">
+        <f t="shared" si="0"/>
         <v>248.97107722880872</v>
       </c>
-      <c r="L38">
+      <c r="M45" s="20">
+        <f>F45*('[1]Howard_Table 49'!D45/100)</f>
         <v>32.026361602501154</v>
       </c>
-      <c r="M38">
+      <c r="N45" s="20">
+        <f>L45*('[1]Howard_Table 49'!F45/100)</f>
         <v>26.812550192218556</v>
       </c>
-      <c r="N38">
+      <c r="O45" s="21">
         <v>89636</v>
       </c>
-      <c r="O38">
+      <c r="P45" s="21">
         <v>93966.722000000009</v>
       </c>
-      <c r="P38">
+      <c r="Q45" s="22">
         <v>59062.722000000002</v>
       </c>
-      <c r="Q38">
+      <c r="R45" s="22">
         <v>34579</v>
       </c>
-      <c r="R38">
+      <c r="S45" s="24">
         <v>261</v>
       </c>
-      <c r="S38">
+      <c r="T45" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+    </row>
+    <row r="46" spans="1:29">
+      <c r="A46" s="7">
+        <v>2003</v>
+      </c>
+      <c r="B46" s="21">
         <v>88385</v>
       </c>
-      <c r="B39">
+      <c r="C46" s="21">
         <v>92477.659</v>
       </c>
-      <c r="C39">
+      <c r="D46" s="22">
         <v>58502.659</v>
       </c>
-      <c r="D39">
+      <c r="E46" s="22">
         <v>33650</v>
       </c>
-      <c r="E39">
+      <c r="F46" s="21">
         <v>236</v>
       </c>
-      <c r="F39">
+      <c r="G46" s="26">
         <v>1.0463049046783957</v>
       </c>
-      <c r="G39">
+      <c r="H46" s="26">
         <v>0.66190709962097638</v>
       </c>
-      <c r="H39">
+      <c r="I46" s="26">
         <v>0.38072071052780448</v>
       </c>
-      <c r="I39">
+      <c r="J46" s="26">
         <v>2.6701363353510213E-3</v>
       </c>
-      <c r="J39">
+      <c r="K46" s="27">
         <v>38.072071052780451</v>
       </c>
-      <c r="K39">
+      <c r="L46" s="20">
+        <f t="shared" si="0"/>
         <v>225.55566636910652</v>
       </c>
-      <c r="L39">
+      <c r="M46" s="20">
+        <f>F46*('[1]Howard_Table 49'!D46/100)</f>
         <v>26.990851612402778</v>
       </c>
-      <c r="M39">
+      <c r="N46" s="20">
+        <f>L46*('[1]Howard_Table 49'!F46/100)</f>
         <v>22.873501585981618</v>
       </c>
-      <c r="N39">
+      <c r="O46" s="21">
         <v>88385</v>
       </c>
-      <c r="O39">
+      <c r="P46" s="21">
         <v>92477.659</v>
       </c>
-      <c r="P39">
+      <c r="Q46" s="22">
         <v>58502.659</v>
       </c>
-      <c r="Q39">
+      <c r="R46" s="22">
         <v>33650</v>
       </c>
-      <c r="R39">
+      <c r="S46" s="24">
         <v>236</v>
       </c>
-      <c r="S39">
+      <c r="T46" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+    </row>
+    <row r="47" spans="1:29" ht="16" thickBot="1">
+      <c r="A47" s="25">
+        <v>2004</v>
+      </c>
+      <c r="B47" s="21">
         <v>91589</v>
       </c>
-      <c r="B40">
+      <c r="C47" s="21">
         <v>94626.892000000007</v>
       </c>
-      <c r="C40">
+      <c r="D47" s="22">
         <v>59565.892000000007</v>
       </c>
-      <c r="D40">
+      <c r="E47" s="22">
         <v>34736</v>
       </c>
-      <c r="E40">
+      <c r="F47" s="24">
         <v>212</v>
       </c>
-      <c r="F40">
+      <c r="G47" s="26">
         <v>1.0331687429713177</v>
       </c>
-      <c r="G40">
+      <c r="H47" s="26">
         <v>0.650360763847187</v>
       </c>
-      <c r="H40">
+      <c r="I47" s="26">
         <v>0.37925951806439639</v>
       </c>
-      <c r="I40">
+      <c r="J47" s="26">
         <v>2.3146884451189552E-3</v>
       </c>
-      <c r="J40">
+      <c r="K47" s="27">
         <v>37.925951806439642</v>
       </c>
-      <c r="K40">
+      <c r="L47" s="20">
+        <f t="shared" si="0"/>
         <v>205.19397382300158</v>
       </c>
-      <c r="L40">
+      <c r="M47" s="20">
+        <f>F47*('[1]Howard_Table 49'!D47/100)</f>
         <v>23.926815231588353</v>
       </c>
-      <c r="M40">
+      <c r="N47" s="20">
+        <f>L47*('[1]Howard_Table 49'!F47/100)</f>
         <v>21.615653097623646</v>
       </c>
-      <c r="N40">
+      <c r="O47" s="21">
         <v>91589</v>
       </c>
-      <c r="O40">
+      <c r="P47" s="21">
         <v>94626.892000000007</v>
       </c>
-      <c r="P40">
+      <c r="Q47" s="22">
         <v>59565.892000000007</v>
       </c>
-      <c r="Q40">
+      <c r="R47" s="22">
         <v>34736</v>
       </c>
-      <c r="R40">
+      <c r="S47" s="24">
         <v>212</v>
       </c>
-      <c r="S40">
+      <c r="T47" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+    </row>
+    <row r="48" spans="1:29">
+      <c r="A48" s="14">
+        <v>2005</v>
+      </c>
+      <c r="B48" s="21">
         <v>91062</v>
       </c>
-      <c r="B41">
+      <c r="C48" s="21">
         <v>94831.457999999984</v>
       </c>
-      <c r="C41">
+      <c r="D48" s="22">
         <v>59770.457999999991</v>
       </c>
-      <c r="D41">
+      <c r="E48" s="22">
         <v>34736</v>
       </c>
-      <c r="E41">
+      <c r="F48" s="24">
         <v>212</v>
       </c>
-      <c r="F41">
+      <c r="G48" s="26">
         <v>1.0413944125980099</v>
       </c>
-      <c r="G41">
+      <c r="H48" s="26">
         <v>0.65637102194109498</v>
       </c>
-      <c r="H41">
+      <c r="I48" s="26">
         <v>0.38145439370978013</v>
       </c>
-      <c r="I41">
+      <c r="J48" s="26">
         <v>2.3280841624387779E-3</v>
       </c>
-      <c r="J41">
+      <c r="K48" s="27">
         <v>38.145439370978011</v>
       </c>
-      <c r="K41">
+      <c r="L48" s="20">
+        <f t="shared" si="0"/>
         <v>203.5732066884388</v>
       </c>
-      <c r="L41">
+      <c r="M48" s="20">
+        <f>F48*('[1]Howard_Table 49'!D48/100)</f>
         <v>24.105428091600785</v>
       </c>
-      <c r="M41">
+      <c r="N48" s="20">
+        <f>L48*('[1]Howard_Table 49'!F48/100)</f>
         <v>22.081734240386254</v>
       </c>
-      <c r="N41">
+      <c r="O48" s="21">
         <v>91062</v>
       </c>
-      <c r="O41">
+      <c r="P48" s="21">
         <v>94831.457999999984</v>
       </c>
-      <c r="P41">
+      <c r="Q48" s="22">
         <v>59770.457999999991</v>
       </c>
-      <c r="Q41">
+      <c r="R48" s="22">
         <v>34736</v>
       </c>
-      <c r="R41">
+      <c r="S48" s="24">
         <v>212</v>
       </c>
-      <c r="S41">
+      <c r="T48" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+    </row>
+    <row r="49" spans="1:29">
+      <c r="A49" s="14">
+        <v>2006</v>
+      </c>
+      <c r="B49" s="21">
         <v>91800</v>
       </c>
-      <c r="B42">
+      <c r="C49" s="21">
         <v>95697.106999999989</v>
       </c>
-      <c r="C42">
+      <c r="D49" s="22">
         <v>60901.106999999996</v>
       </c>
-      <c r="D42">
+      <c r="E49" s="22">
         <v>34471</v>
       </c>
-      <c r="E42">
+      <c r="F49" s="24">
         <v>215</v>
       </c>
-      <c r="F42">
+      <c r="G49" s="26">
         <v>1.0424521459694989</v>
       </c>
-      <c r="G42">
+      <c r="H49" s="26">
         <v>0.66341075163398688</v>
       </c>
-      <c r="H42">
+      <c r="I49" s="26">
         <v>0.37550108932461873</v>
       </c>
-      <c r="I42">
+      <c r="J49" s="26">
         <v>2.3420479302832245E-3</v>
       </c>
-      <c r="J42">
+      <c r="K49" s="27">
         <v>37.550108932461875</v>
       </c>
-      <c r="K42">
+      <c r="L49" s="20">
+        <f>F49*(B49/C49)</f>
         <v>206.24447926100839</v>
       </c>
-      <c r="L42">
+      <c r="M49" s="20">
+        <f>F49*('[1]Howard_Table 49'!D49/100)</f>
         <v>25.058860938607584</v>
       </c>
-      <c r="M42">
+      <c r="N49" s="20">
+        <f>L49*('[1]Howard_Table 49'!F49/100)</f>
         <v>23.013210752312322</v>
       </c>
-      <c r="N42">
+      <c r="O49" s="21">
         <v>91800</v>
       </c>
-      <c r="O42">
+      <c r="P49" s="21">
         <v>95697.106999999989</v>
       </c>
-      <c r="P42">
+      <c r="Q49" s="22">
         <v>60901.106999999996</v>
       </c>
-      <c r="Q42">
+      <c r="R49" s="22">
         <v>34471</v>
       </c>
-      <c r="R42">
+      <c r="S49" s="24">
         <v>215</v>
       </c>
-      <c r="S42">
+      <c r="T49" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+    </row>
+    <row r="50" spans="1:29" ht="16" thickBot="1">
+      <c r="A50" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="21">
         <v>91570</v>
       </c>
-      <c r="B43">
+      <c r="C50" s="21">
         <v>89840.842999999993</v>
       </c>
-      <c r="C43">
+      <c r="D50" s="22">
         <v>58894</v>
       </c>
-      <c r="D43">
+      <c r="E50" s="22">
         <v>33918</v>
       </c>
-      <c r="E43">
+      <c r="F50" s="24">
         <v>215</v>
       </c>
-      <c r="F43">
+      <c r="G50" s="26">
         <v>0.98111655564049349</v>
       </c>
-      <c r="G43">
+      <c r="H50" s="26">
         <v>0.60716220377853003</v>
       </c>
-      <c r="H43">
+      <c r="I50" s="26">
         <v>0.37040515452659167</v>
       </c>
-      <c r="I43">
+      <c r="J50" s="26">
         <v>2.3479305449382987E-3</v>
       </c>
-      <c r="J43">
+      <c r="K50" s="27">
         <v>37.040515452659164</v>
       </c>
-      <c r="K43">
+      <c r="L50" s="20">
+        <f>F50*(B50/C50)</f>
         <v>219.13808177423272</v>
       </c>
-      <c r="L43">
+      <c r="M50" s="20">
+        <f>F50*('[1]Howard_Table 49'!D50/100)</f>
         <v>24.938410414551615</v>
       </c>
-      <c r="M43">
+      <c r="N50" s="20">
+        <f>L50*('[1]Howard_Table 49'!F50/100)</f>
         <v>25.543322619922197</v>
       </c>
-      <c r="N43">
+      <c r="O50" s="21">
         <v>91410</v>
       </c>
-      <c r="O43">
+      <c r="P50" s="21">
         <v>95697.106999999989</v>
       </c>
-      <c r="P43">
+      <c r="Q50" s="22">
         <v>60901.106999999996</v>
       </c>
-      <c r="Q43">
+      <c r="R50" s="22">
         <v>34471</v>
       </c>
-      <c r="R43">
+      <c r="S50" s="24">
         <v>215</v>
       </c>
-      <c r="S43">
+      <c r="T50" s="23">
+        <f>SUM(O50:S50)-SUM(B50:F50)</f>
         <v>8256.3709999999846</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+    </row>
+    <row r="51" spans="1:29">
+      <c r="A51" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="21">
         <v>87619</v>
       </c>
-      <c r="B44">
+      <c r="C51" s="21">
         <v>84103.729200000002</v>
       </c>
-      <c r="C44">
+      <c r="D51" s="22">
         <v>51381</v>
       </c>
-      <c r="D44">
+      <c r="E51" s="22">
         <v>32398</v>
       </c>
-      <c r="E44">
+      <c r="F51" s="24">
         <v>215</v>
       </c>
-      <c r="F44">
+      <c r="G51" s="28">
         <v>0.95988003971741287</v>
       </c>
-      <c r="G44">
+      <c r="H51" s="28">
         <v>0.58641081500587777</v>
       </c>
-      <c r="H44">
+      <c r="I51" s="28">
         <v>0.36975998356520845</v>
       </c>
-      <c r="I44">
+      <c r="J51" s="28">
         <v>2.4538056814161313E-3</v>
       </c>
-      <c r="J44">
+      <c r="K51" s="29">
         <v>36.975998356520847</v>
       </c>
-      <c r="K44">
+      <c r="L51" s="20">
+        <f>F51*(B51/C51)</f>
         <v>223.98632235679747</v>
       </c>
-      <c r="L44">
+      <c r="M51" s="20">
+        <f>F51*('[1]Howard_Table 49'!D51/100)</f>
         <v>24.498361805279593</v>
       </c>
-      <c r="M44">
+      <c r="N51" s="20">
+        <f>L51*('[1]Howard_Table 49'!F51/100)</f>
         <v>30.848810757024388</v>
       </c>
-      <c r="N44">
+      <c r="O51" s="21">
+        <f>B51</f>
         <v>87619</v>
       </c>
-      <c r="O44">
+      <c r="P51" s="21">
+        <f>C51</f>
         <v>84103.729200000002</v>
       </c>
-      <c r="P44">
+      <c r="Q51" s="21">
+        <f>D51</f>
         <v>51381</v>
       </c>
-      <c r="Q44">
+      <c r="R51" s="21">
+        <f>E51</f>
         <v>32398</v>
       </c>
-      <c r="R44">
+      <c r="S51" s="21">
+        <f>F51</f>
         <v>215</v>
       </c>
-      <c r="S44">
+      <c r="T51" s="23">
+        <f t="shared" ref="T51:T63" si="2">SUM(O51:S51)-SUM(B51:F51)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+    </row>
+    <row r="52" spans="1:29" ht="16" thickBot="1">
+      <c r="A52" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="21">
         <v>78299</v>
       </c>
-      <c r="B45">
+      <c r="C52" s="30">
         <v>75838</v>
       </c>
-      <c r="C45">
+      <c r="D52" s="31">
         <v>46464</v>
       </c>
-      <c r="D45">
+      <c r="E52" s="31">
         <v>29049</v>
       </c>
-      <c r="E45">
+      <c r="F52" s="24">
         <v>172</v>
       </c>
-      <c r="K45">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="20">
+        <f t="shared" ref="L52:L63" si="3">F52*(B52/C52)</f>
         <v>177.58152904876184</v>
       </c>
-      <c r="L45">
+      <c r="M52" s="20">
+        <f>F52*('[1]Howard_Table 49'!D52/100)</f>
         <v>18.028136234233109</v>
       </c>
-      <c r="M45">
+      <c r="N52" s="20">
+        <f>L52*('[1]Howard_Table 49'!F52/100)</f>
         <v>26.38909674132654</v>
       </c>
-      <c r="N45">
+      <c r="O52" s="21">
+        <f t="shared" ref="O52:S63" si="4">B52</f>
         <v>78299</v>
       </c>
-      <c r="O45">
+      <c r="P52" s="21">
+        <f t="shared" si="4"/>
         <v>75838</v>
       </c>
-      <c r="P45">
+      <c r="Q52" s="21">
+        <f t="shared" si="4"/>
         <v>46464</v>
       </c>
-      <c r="Q45">
+      <c r="R52" s="21">
+        <f t="shared" si="4"/>
         <v>29049</v>
       </c>
-      <c r="R45">
+      <c r="S52" s="21">
+        <f t="shared" si="4"/>
         <v>172</v>
       </c>
-      <c r="S45">
+      <c r="T52" s="23">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+    </row>
+    <row r="53" spans="1:29">
+      <c r="A53" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="23">
         <v>82960</v>
       </c>
-      <c r="B46">
+      <c r="C53" s="30">
         <v>77275</v>
       </c>
-      <c r="C46">
+      <c r="D53" s="31">
         <v>45613</v>
       </c>
-      <c r="D46">
+      <c r="E53" s="31">
         <v>31337</v>
       </c>
-      <c r="E46">
+      <c r="F53" s="24">
         <v>176</v>
       </c>
-      <c r="K46">
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="20">
+        <f>F53*(B53/C53)</f>
         <v>188.94804270462632</v>
       </c>
-      <c r="L46">
+      <c r="M53" s="20">
+        <f>F53*('[1]Howard_Table 49'!D53/100)</f>
         <v>21.381588803469349</v>
       </c>
-      <c r="M46">
+      <c r="N53" s="20">
+        <f>L53*('[1]Howard_Table 49'!F53/100)</f>
         <v>29.558895611631897</v>
       </c>
-      <c r="N46">
+      <c r="O53" s="21">
+        <f t="shared" si="4"/>
         <v>82960</v>
       </c>
-      <c r="O46">
+      <c r="P53" s="21">
+        <f t="shared" si="4"/>
         <v>77275</v>
       </c>
-      <c r="P46">
+      <c r="Q53" s="21">
+        <f t="shared" si="4"/>
         <v>45613</v>
       </c>
-      <c r="Q46">
+      <c r="R53" s="21">
+        <f t="shared" si="4"/>
         <v>31337</v>
       </c>
-      <c r="R46">
+      <c r="S53" s="21">
+        <f t="shared" si="4"/>
         <v>176</v>
       </c>
-      <c r="S46">
+      <c r="T53" s="23">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+    </row>
+    <row r="54" spans="1:29" ht="16" thickBot="1">
+      <c r="A54" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="23">
         <v>81519</v>
       </c>
-      <c r="B47">
+      <c r="C54" s="30">
         <v>75802</v>
       </c>
-      <c r="C47">
+      <c r="D54" s="31">
         <v>45184</v>
       </c>
-      <c r="D47">
+      <c r="E54" s="31">
         <v>30293</v>
       </c>
-      <c r="E47">
+      <c r="F54" s="24">
         <v>179</v>
       </c>
-      <c r="K47">
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="20">
+        <f t="shared" si="3"/>
         <v>192.5002110762249</v>
       </c>
-      <c r="L47">
+      <c r="M54" s="20">
+        <f>F54*('[1]Howard_Table 49'!D54/100)</f>
         <v>21.801190665817138</v>
       </c>
-      <c r="M47">
+      <c r="N54" s="20">
+        <f>L54*('[1]Howard_Table 49'!F54/100)</f>
         <v>32.827304448316085</v>
       </c>
-      <c r="N47">
+      <c r="O54" s="21">
+        <f t="shared" si="4"/>
         <v>81519</v>
       </c>
-      <c r="O47">
+      <c r="P54" s="21">
+        <f t="shared" si="4"/>
         <v>75802</v>
       </c>
-      <c r="P47">
+      <c r="Q54" s="21">
+        <f t="shared" si="4"/>
         <v>45184</v>
       </c>
-      <c r="Q47">
+      <c r="R54" s="21">
+        <f t="shared" si="4"/>
         <v>30293</v>
       </c>
-      <c r="R47">
+      <c r="S54" s="21">
+        <f t="shared" si="4"/>
         <v>179</v>
       </c>
-      <c r="S47">
+      <c r="T54" s="23">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+    </row>
+    <row r="55" spans="1:29">
+      <c r="A55" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="23">
         <v>81519</v>
       </c>
-      <c r="B48">
+      <c r="C55" s="30">
         <v>75632</v>
       </c>
-      <c r="C48">
+      <c r="D55" s="31">
         <v>45609</v>
       </c>
-      <c r="D48">
+      <c r="E55" s="31">
         <v>29698</v>
       </c>
-      <c r="E48">
+      <c r="F55" s="24">
         <v>180</v>
       </c>
-      <c r="K48">
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="20">
+        <f t="shared" si="3"/>
         <v>194.01073619631902</v>
       </c>
-      <c r="L48">
+      <c r="M55" s="20">
+        <f>F55*('[1]Howard_Table 49'!D55/100)</f>
         <v>19.967121670128019</v>
       </c>
-      <c r="M48">
+      <c r="N55" s="20">
+        <f>L55*('[1]Howard_Table 49'!F55/100)</f>
         <v>29.745402777300303</v>
       </c>
-      <c r="N48">
+      <c r="O55" s="21">
+        <f t="shared" si="4"/>
         <v>81519</v>
       </c>
-      <c r="O48">
+      <c r="P55" s="21">
+        <f t="shared" si="4"/>
         <v>75632</v>
       </c>
-      <c r="P48">
+      <c r="Q55" s="21">
+        <f t="shared" si="4"/>
         <v>45609</v>
       </c>
-      <c r="Q48">
+      <c r="R55" s="21">
+        <f t="shared" si="4"/>
         <v>29698</v>
       </c>
-      <c r="R48">
+      <c r="S55" s="21">
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="S48">
+      <c r="T55" s="23">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+    </row>
+    <row r="56" spans="1:29" ht="16" thickBot="1">
+      <c r="A56" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="23">
         <v>80670</v>
       </c>
-      <c r="B49">
+      <c r="C56" s="23">
         <v>75862</v>
       </c>
-      <c r="C49">
+      <c r="D56" s="23">
         <v>45609</v>
       </c>
-      <c r="D49">
+      <c r="E56" s="22">
         <v>29928</v>
       </c>
-      <c r="E49">
+      <c r="F56" s="24">
         <v>161</v>
       </c>
-      <c r="K49">
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="20">
+        <f t="shared" si="3"/>
         <v>171.20389654899685</v>
       </c>
-      <c r="L49">
+      <c r="M56" s="20">
+        <f>F56*('[1]Howard_Table 49'!D56/100)</f>
         <v>19.270501295996986</v>
       </c>
-      <c r="M49">
+      <c r="N56" s="20">
+        <f>L56*('[1]Howard_Table 49'!F56/100)</f>
         <v>26.26735739191767</v>
       </c>
-      <c r="N49">
+      <c r="O56" s="21">
+        <f t="shared" si="4"/>
         <v>80670</v>
       </c>
-      <c r="O49">
+      <c r="P56" s="21">
+        <f t="shared" si="4"/>
         <v>75862</v>
       </c>
-      <c r="P49">
+      <c r="Q56" s="21">
+        <f t="shared" si="4"/>
         <v>45609</v>
       </c>
-      <c r="Q49">
+      <c r="R56" s="21">
+        <f t="shared" si="4"/>
         <v>29928</v>
       </c>
-      <c r="R49">
+      <c r="S56" s="21">
+        <f t="shared" si="4"/>
         <v>161</v>
       </c>
-      <c r="S49">
+      <c r="T56" s="23">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+    </row>
+    <row r="57" spans="1:29">
+      <c r="A57" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="23">
+        <f>'[1]Ince_Paper&amp;Paperboard'!B125</f>
         <v>96839</v>
       </c>
-      <c r="B50">
+      <c r="C57" s="23">
+        <f t="shared" ref="C57:C63" si="5">D57+E57+F57</f>
         <v>101228.79027522211</v>
       </c>
-      <c r="C50">
+      <c r="D57" s="23">
+        <f>'[1]Howard_Table 49'!G57</f>
         <v>66542.790275222113</v>
       </c>
-      <c r="D50">
+      <c r="E57" s="22">
         <v>34471</v>
       </c>
-      <c r="E50">
+      <c r="F57" s="24">
         <v>215</v>
       </c>
-      <c r="K50">
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="20">
+        <f t="shared" si="3"/>
         <v>205.67651696116565</v>
       </c>
-      <c r="L50">
+      <c r="M57" s="20">
+        <f>F57*('[1]Howard_Table 49'!D57/100)</f>
         <v>23.873886163014486</v>
       </c>
-      <c r="M50">
+      <c r="N57" s="20">
+        <f>L57*('[1]Howard_Table 49'!F57/100)</f>
         <v>20.689678810298997</v>
       </c>
-      <c r="N50">
+      <c r="O57" s="21">
+        <f t="shared" si="4"/>
         <v>96839</v>
       </c>
-      <c r="O50">
+      <c r="P57" s="21">
+        <f t="shared" si="4"/>
         <v>101228.79027522211</v>
       </c>
-      <c r="P50">
+      <c r="Q57" s="21">
+        <f t="shared" si="4"/>
         <v>66542.790275222113</v>
       </c>
-      <c r="Q50">
+      <c r="R57" s="21">
+        <f t="shared" si="4"/>
         <v>34471</v>
       </c>
-      <c r="R50">
+      <c r="S57" s="21">
+        <f t="shared" si="4"/>
         <v>215</v>
       </c>
-      <c r="S50">
+      <c r="T57" s="23">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+    </row>
+    <row r="58" spans="1:29" ht="16" thickBot="1">
+      <c r="A58" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="23">
+        <f>'[1]Ince_Paper&amp;Paperboard'!B126</f>
         <v>98498</v>
       </c>
-      <c r="B51">
+      <c r="C58" s="23">
+        <f t="shared" si="5"/>
         <v>102982.64389018388</v>
       </c>
-      <c r="C51">
+      <c r="D58" s="23">
+        <f>'[1]Howard_Table 49'!G58</f>
         <v>68296.643890183885</v>
       </c>
-      <c r="D51">
+      <c r="E58" s="22">
         <v>34471</v>
       </c>
-      <c r="E51">
+      <c r="F58" s="24">
         <v>215</v>
       </c>
-      <c r="K51">
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="20">
+        <f t="shared" si="3"/>
         <v>205.63727245711704</v>
       </c>
-      <c r="L51">
+      <c r="M58" s="20">
+        <f>F58*('[1]Howard_Table 49'!D58/100)</f>
         <v>23.330062931965106</v>
       </c>
-      <c r="M51">
+      <c r="N58" s="20">
+        <f>L58*('[1]Howard_Table 49'!F58/100)</f>
         <v>20.267600495070006</v>
       </c>
-      <c r="N51">
+      <c r="O58" s="21">
+        <f t="shared" si="4"/>
         <v>98498</v>
       </c>
-      <c r="O51">
+      <c r="P58" s="21">
+        <f t="shared" si="4"/>
         <v>102982.64389018388</v>
       </c>
-      <c r="P51">
+      <c r="Q58" s="21">
+        <f t="shared" si="4"/>
         <v>68296.643890183885</v>
       </c>
-      <c r="Q51">
+      <c r="R58" s="21">
+        <f t="shared" si="4"/>
         <v>34471</v>
       </c>
-      <c r="R51">
+      <c r="S58" s="21">
+        <f t="shared" si="4"/>
         <v>215</v>
       </c>
-      <c r="S51">
+      <c r="T58" s="23">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
+    </row>
+    <row r="59" spans="1:29">
+      <c r="A59" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="23">
+        <f>'[1]Ince_Paper&amp;Paperboard'!B127</f>
         <v>98879</v>
       </c>
-      <c r="B52">
+      <c r="C59" s="23">
+        <f t="shared" si="5"/>
         <v>103420.1123762131</v>
       </c>
-      <c r="C52">
+      <c r="D59" s="23">
+        <f>'[1]Howard_Table 49'!G59</f>
         <v>68734.112376213103</v>
       </c>
-      <c r="D52">
+      <c r="E59" s="22">
         <v>34471</v>
       </c>
-      <c r="E52">
+      <c r="F59" s="24">
         <v>215</v>
       </c>
-      <c r="K52">
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="20">
+        <f t="shared" si="3"/>
         <v>205.55948462583206</v>
       </c>
-      <c r="L52">
+      <c r="M59" s="20">
+        <f>F59*('[1]Howard_Table 49'!D59/100)</f>
         <v>23.256647168883841</v>
       </c>
-      <c r="M52">
+      <c r="N59" s="20">
+        <f>L59*('[1]Howard_Table 49'!F59/100)</f>
         <v>20.248469088011912</v>
       </c>
-      <c r="N52">
+      <c r="O59" s="21">
+        <f t="shared" si="4"/>
         <v>98879</v>
       </c>
-      <c r="O52">
+      <c r="P59" s="21">
+        <f t="shared" si="4"/>
         <v>103420.1123762131</v>
       </c>
-      <c r="P52">
+      <c r="Q59" s="21">
+        <f t="shared" si="4"/>
         <v>68734.112376213103</v>
       </c>
-      <c r="Q52">
+      <c r="R59" s="21">
+        <f t="shared" si="4"/>
         <v>34471</v>
       </c>
-      <c r="R52">
+      <c r="S59" s="21">
+        <f t="shared" si="4"/>
         <v>215</v>
       </c>
-      <c r="S52">
+      <c r="T59" s="23">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+    </row>
+    <row r="60" spans="1:29" ht="16" thickBot="1">
+      <c r="A60" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="23">
+        <f>'[1]Ince_Paper&amp;Paperboard'!B128</f>
         <v>100299</v>
       </c>
-      <c r="B53">
+      <c r="C60" s="23">
+        <f t="shared" si="5"/>
         <v>104587.60567638396</v>
       </c>
-      <c r="C53">
+      <c r="D60" s="23">
+        <f>'[1]Howard_Table 49'!G60</f>
         <v>69901.605676383959</v>
       </c>
-      <c r="D53">
+      <c r="E60" s="22">
         <v>34471</v>
       </c>
-      <c r="E53">
+      <c r="F60" s="24">
         <v>215</v>
       </c>
-      <c r="K53">
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="20">
+        <f t="shared" si="3"/>
         <v>206.18394369524466</v>
       </c>
-      <c r="L53">
+      <c r="M60" s="20">
+        <f>F60*('[1]Howard_Table 49'!D60/100)</f>
         <v>22.948185302443566</v>
       </c>
-      <c r="M53">
+      <c r="N60" s="20">
+        <f>L60*('[1]Howard_Table 49'!F60/100)</f>
         <v>20.085017585415095</v>
       </c>
-      <c r="N53">
+      <c r="O60" s="21">
+        <f t="shared" si="4"/>
         <v>100299</v>
       </c>
-      <c r="O53">
+      <c r="P60" s="21">
+        <f t="shared" si="4"/>
         <v>104587.60567638396</v>
       </c>
-      <c r="P53">
+      <c r="Q60" s="21">
+        <f t="shared" si="4"/>
         <v>69901.605676383959</v>
       </c>
-      <c r="Q53">
+      <c r="R60" s="21">
+        <f t="shared" si="4"/>
         <v>34471</v>
       </c>
-      <c r="R53">
+      <c r="S60" s="21">
+        <f t="shared" si="4"/>
         <v>215</v>
       </c>
-      <c r="S53">
+      <c r="T60" s="23">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+    </row>
+    <row r="61" spans="1:29">
+      <c r="A61" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="23">
+        <f>'[1]Ince_Paper&amp;Paperboard'!B129</f>
         <v>101477</v>
       </c>
-      <c r="B54">
+      <c r="C61" s="23">
+        <f t="shared" si="5"/>
         <v>105616.82366935229</v>
       </c>
-      <c r="C54">
+      <c r="D61" s="23">
+        <f>'[1]Howard_Table 49'!G61</f>
         <v>70930.823669352292</v>
       </c>
-      <c r="D54">
+      <c r="E61" s="22">
         <v>34471</v>
       </c>
-      <c r="E54">
+      <c r="F61" s="24">
         <v>215</v>
       </c>
-      <c r="K54">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="20">
+        <f t="shared" si="3"/>
         <v>206.572724325651</v>
       </c>
-      <c r="L54">
+      <c r="M61" s="20">
+        <f>F61*('[1]Howard_Table 49'!D61/100)</f>
         <v>22.700074758834429</v>
       </c>
-      <c r="M54">
+      <c r="N61" s="20">
+        <f>L61*('[1]Howard_Table 49'!F61/100)</f>
         <v>19.944840474702417</v>
       </c>
-      <c r="N54">
+      <c r="O61" s="21">
+        <f t="shared" si="4"/>
         <v>101477</v>
       </c>
-      <c r="O54">
+      <c r="P61" s="21">
+        <f t="shared" si="4"/>
         <v>105616.82366935229</v>
       </c>
-      <c r="P54">
+      <c r="Q61" s="21">
+        <f t="shared" si="4"/>
         <v>70930.823669352292</v>
       </c>
-      <c r="Q54">
+      <c r="R61" s="21">
+        <f t="shared" si="4"/>
         <v>34471</v>
       </c>
-      <c r="R54">
+      <c r="S61" s="21">
+        <f t="shared" si="4"/>
         <v>215</v>
       </c>
-      <c r="S54">
+      <c r="T61" s="23">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+    </row>
+    <row r="62" spans="1:29" ht="16" thickBot="1">
+      <c r="A62" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" s="23">
+        <f>'[1]Ince_Paper&amp;Paperboard'!B130</f>
         <v>102765</v>
       </c>
-      <c r="B55">
+      <c r="C62" s="23">
+        <f t="shared" si="5"/>
         <v>106502.5068209264</v>
       </c>
-      <c r="C55">
+      <c r="D62" s="23">
+        <f>'[1]Howard_Table 49'!G62</f>
         <v>71816.506820926399</v>
       </c>
-      <c r="D55">
+      <c r="E62" s="22">
         <v>34471</v>
       </c>
-      <c r="E55">
+      <c r="F62" s="24">
         <v>215</v>
       </c>
-      <c r="K55">
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="20">
+        <f t="shared" si="3"/>
         <v>207.45497603309667</v>
       </c>
-      <c r="L55">
+      <c r="M62" s="20">
+        <f>F62*('[1]Howard_Table 49'!D62/100)</f>
         <v>22.506942645238919</v>
       </c>
-      <c r="M55">
+      <c r="N62" s="20">
+        <f>L62*('[1]Howard_Table 49'!F62/100)</f>
         <v>19.899434210462655</v>
       </c>
-      <c r="N55">
+      <c r="O62" s="21">
+        <f t="shared" si="4"/>
         <v>102765</v>
       </c>
-      <c r="O55">
+      <c r="P62" s="21">
+        <f t="shared" si="4"/>
         <v>106502.5068209264</v>
       </c>
-      <c r="P55">
+      <c r="Q62" s="21">
+        <f t="shared" si="4"/>
         <v>71816.506820926399</v>
       </c>
-      <c r="Q55">
+      <c r="R62" s="21">
+        <f t="shared" si="4"/>
         <v>34471</v>
       </c>
-      <c r="R55">
+      <c r="S62" s="21">
+        <f t="shared" si="4"/>
         <v>215</v>
       </c>
-      <c r="S55">
+      <c r="T62" s="23">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
+    </row>
+    <row r="63" spans="1:29">
+      <c r="A63" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="23">
+        <f>'[1]Ince_Paper&amp;Paperboard'!B131</f>
         <v>104142</v>
       </c>
-      <c r="B56">
+      <c r="C63" s="23">
+        <f t="shared" si="5"/>
         <v>107624.82385397825</v>
       </c>
-      <c r="C56">
+      <c r="D63" s="23">
+        <f>'[1]Howard_Table 49'!G63</f>
         <v>72938.823853978247</v>
       </c>
-      <c r="D56">
+      <c r="E63" s="22">
         <v>34471</v>
       </c>
-      <c r="E56">
+      <c r="F63" s="24">
         <v>215</v>
       </c>
-      <c r="K56">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="20">
+        <f t="shared" si="3"/>
         <v>208.04243108800551</v>
       </c>
-      <c r="L56">
+      <c r="M63" s="20">
+        <f>F63*('[1]Howard_Table 49'!D63/100)</f>
         <v>22.254951673606737</v>
       </c>
-      <c r="M56">
+      <c r="N63" s="20">
+        <f>L63*('[1]Howard_Table 49'!F63/100)</f>
         <v>19.766584150695046</v>
       </c>
-      <c r="N56">
+      <c r="O63" s="21">
+        <f t="shared" si="4"/>
         <v>104142</v>
       </c>
-      <c r="O56">
+      <c r="P63" s="21">
+        <f t="shared" si="4"/>
         <v>107624.82385397825</v>
       </c>
-      <c r="P56">
+      <c r="Q63" s="21">
+        <f t="shared" si="4"/>
         <v>72938.823853978247</v>
       </c>
-      <c r="Q56">
+      <c r="R63" s="21">
+        <f t="shared" si="4"/>
         <v>34471</v>
       </c>
-      <c r="R56">
+      <c r="S63" s="21">
+        <f t="shared" si="4"/>
         <v>215</v>
       </c>
-      <c r="S56">
+      <c r="T63" s="23">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+    </row>
+    <row r="64" spans="1:29">
+      <c r="A64" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="2"/>
+    </row>
+    <row r="65" spans="1:29">
+      <c r="A65" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="2"/>
+    </row>
+    <row r="66" spans="1:29">
+      <c r="A66" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
+    </row>
+    <row r="67" spans="1:29">
+      <c r="A67" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+    </row>
+    <row r="68" spans="1:29">
+      <c r="A68" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+    </row>
+    <row r="69" spans="1:29">
+      <c r="A69" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2"/>
+    </row>
+    <row r="70" spans="1:29">
+      <c r="A70" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
+    </row>
+    <row r="71" spans="1:29">
+      <c r="A71" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="2"/>
+    </row>
+    <row r="72" spans="1:29">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="2"/>
+    </row>
+    <row r="73" spans="1:29">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="2"/>
+    </row>
+    <row r="74" spans="1:29">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
+    </row>
+    <row r="75" spans="1:29">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+    </row>
+    <row r="76" spans="1:29">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+    </row>
+    <row r="77" spans="1:29">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2"/>
+    </row>
+    <row r="78" spans="1:29">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+    </row>
+    <row r="79" spans="1:29">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="2"/>
+    </row>
+    <row r="80" spans="1:29">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
+      <c r="AB80" s="2"/>
+      <c r="AC80" s="2"/>
+    </row>
+    <row r="81" spans="1:29">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="2"/>
+      <c r="AC81" s="2"/>
+    </row>
+    <row r="82" spans="1:29">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="2"/>
+      <c r="AC82" s="2"/>
+    </row>
+    <row r="83" spans="1:29">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2"/>
+    </row>
+    <row r="84" spans="1:29">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="2"/>
+      <c r="AC84" s="2"/>
+    </row>
+    <row r="85" spans="1:29">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="2"/>
+      <c r="AC85" s="2"/>
+    </row>
+    <row r="86" spans="1:29">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="2"/>
+      <c r="AC86" s="2"/>
+    </row>
+    <row r="87" spans="1:29">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
+    </row>
+    <row r="88" spans="1:29">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2"/>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="2"/>
+      <c r="AC88" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="A69:J69"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>